--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -1636,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1939,6 +1939,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -1951,6 +1954,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -1963,6 +1969,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -2003,9 +2012,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>20</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -2032,9 +2038,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>20</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -2060,11 +2063,6 @@
       </c>
       <c r="P30">
         <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2472,7 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2888,6 +2886,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>35</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -2900,6 +2901,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>35</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -2912,6 +2916,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -2952,9 +2959,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>35</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -2981,9 +2985,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>35</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -3009,11 +3010,6 @@
       </c>
       <c r="P30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3023,7 +3019,7 @@
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3326,6 +3322,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -3338,6 +3337,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -3350,6 +3352,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -3390,9 +3395,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -3419,9 +3421,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>10</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -3447,11 +3446,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5461,7 +5455,7 @@
 
 <file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5875,6 +5869,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -5887,6 +5884,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -5899,6 +5899,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -5939,9 +5942,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -5968,9 +5968,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>10</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -5996,11 +5993,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -6010,7 +6002,7 @@
 
 <file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6424,6 +6416,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -6436,6 +6431,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -6448,6 +6446,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -6488,9 +6489,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -6517,9 +6515,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>10</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -6545,11 +6540,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -7359,7 +7349,7 @@
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7773,6 +7763,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -7785,6 +7778,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -7797,6 +7793,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -7837,9 +7836,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -7866,9 +7862,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>10</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -7894,11 +7887,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -8308,7 +8296,7 @@
 
 <file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8722,6 +8710,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -8734,6 +8725,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -8746,6 +8740,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -8786,9 +8783,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -8815,9 +8809,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>10</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -8843,11 +8834,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -10857,7 +10843,7 @@
 
 <file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11160,6 +11146,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -11172,6 +11161,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -11184,6 +11176,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -11224,9 +11219,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -11253,9 +11245,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>10</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -11281,11 +11270,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -11295,7 +11279,7 @@
 
 <file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11598,6 +11582,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -11610,6 +11597,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -11622,6 +11612,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -11662,9 +11655,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -11691,9 +11681,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>10</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -11719,11 +11706,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -13655,7 +13637,7 @@
 
 <file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14069,6 +14051,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -14081,6 +14066,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -14093,6 +14081,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -14133,9 +14124,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -14162,9 +14150,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -14190,11 +14175,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -17004,7 +16984,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17307,6 +17287,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -17319,6 +17302,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -17331,6 +17317,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -17371,9 +17360,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>20</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -17400,9 +17386,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>20</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -17428,11 +17411,6 @@
       </c>
       <c r="P30">
         <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -17442,7 +17420,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17745,6 +17723,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -17757,6 +17738,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -17769,6 +17753,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -17809,9 +17796,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -17838,9 +17822,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>10</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -17866,11 +17847,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -17880,7 +17856,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18183,6 +18159,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -18195,6 +18174,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -18207,6 +18189,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -18247,9 +18232,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -18276,9 +18258,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>10</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -18304,11 +18283,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -20766,7 +20740,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21069,6 +21043,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -21081,6 +21058,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -21093,6 +21073,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -21133,9 +21116,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -21162,9 +21142,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>10</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -21190,11 +21167,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -24804,7 +24776,7 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25218,6 +25190,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -25230,6 +25205,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -25242,6 +25220,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -25282,9 +25263,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -25311,9 +25289,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -25339,11 +25314,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -25353,7 +25323,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25767,6 +25737,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -25779,6 +25752,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -25791,6 +25767,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -25831,9 +25810,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -25860,9 +25836,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -25888,11 +25861,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -25902,7 +25870,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26316,6 +26284,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -26328,6 +26299,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -26340,6 +26314,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -26380,9 +26357,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -26409,9 +26383,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -26437,11 +26408,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -26851,7 +26817,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27265,6 +27231,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -27277,6 +27246,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -27289,6 +27261,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -27329,9 +27304,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -27358,9 +27330,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -27386,11 +27355,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -29400,7 +29364,7 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29703,6 +29667,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -29715,6 +29682,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -29727,6 +29697,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -29767,9 +29740,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -29796,9 +29766,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>10</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -29824,11 +29791,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -34238,7 +34200,7 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -34541,6 +34503,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -34553,6 +34518,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -34565,6 +34533,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -34605,9 +34576,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -34634,9 +34602,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>10</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -34662,11 +34627,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -34676,7 +34636,7 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -34979,6 +34939,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -34991,6 +34954,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -35003,6 +34969,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -35043,9 +35012,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>10</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -35072,9 +35038,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>10</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -35100,11 +35063,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -36314,7 +36272,7 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -36728,6 +36686,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -36740,6 +36701,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -36752,6 +36716,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -36792,9 +36759,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -36821,9 +36785,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -36849,11 +36810,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -36863,7 +36819,7 @@
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -37277,6 +37233,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -37289,6 +37248,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -37301,6 +37263,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -37341,9 +37306,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -37370,9 +37332,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -37398,11 +37357,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -37412,7 +37366,7 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -37826,6 +37780,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -37838,6 +37795,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -37850,6 +37810,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -37890,9 +37853,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -37919,9 +37879,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -37947,11 +37904,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -37961,7 +37913,7 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -38264,6 +38216,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -38276,6 +38231,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -38288,6 +38246,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -38328,9 +38289,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -38357,9 +38315,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -38385,11 +38340,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -38399,7 +38349,7 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -38702,6 +38652,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -38714,6 +38667,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -38726,6 +38682,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -38766,9 +38725,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -38795,9 +38751,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -38823,11 +38776,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -38837,7 +38785,7 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39140,6 +39088,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -39152,6 +39103,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -39164,6 +39118,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -39204,9 +39161,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -39233,9 +39187,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -39261,11 +39212,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -39275,7 +39221,7 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39578,6 +39524,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -39590,6 +39539,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -39602,6 +39554,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -39642,9 +39597,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -39671,9 +39623,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -39699,11 +39648,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -39713,7 +39657,7 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40016,6 +39960,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -40028,6 +39975,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -40040,6 +39990,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -40080,9 +40033,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -40109,9 +40059,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -40137,11 +40084,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -40151,7 +40093,7 @@
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40565,6 +40507,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -40577,6 +40522,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -40589,6 +40537,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -40629,9 +40580,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -40658,9 +40606,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -40686,11 +40631,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -41100,7 +41040,7 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -41562,6 +41502,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -41574,6 +41517,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -41586,6 +41532,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -41626,9 +41575,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -41655,9 +41601,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -41683,11 +41626,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -42497,7 +42435,7 @@
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -42959,6 +42897,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -42971,6 +42912,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -42983,6 +42927,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -43023,9 +42970,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -43052,9 +42996,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -43080,11 +43021,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -43094,7 +43030,7 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -43508,6 +43444,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -43520,6 +43459,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -43532,6 +43474,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -43572,9 +43517,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -43601,9 +43543,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -43629,11 +43568,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -44043,7 +43977,7 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44457,6 +44391,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -44469,6 +44406,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -44481,6 +44421,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -44521,9 +44464,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -44550,9 +44490,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -44578,11 +44515,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -44592,7 +44524,7 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -45006,6 +44938,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -45018,6 +44953,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -45030,6 +44968,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -45070,9 +45011,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -45099,9 +45037,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -45127,11 +45062,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -45141,7 +45071,7 @@
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -45555,6 +45485,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -45567,6 +45500,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -45579,6 +45515,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -45619,9 +45558,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -45648,9 +45584,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -45676,11 +45609,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -45690,7 +45618,7 @@
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -46104,6 +46032,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -46116,6 +46047,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -46128,6 +46062,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -46168,9 +46105,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -46197,9 +46131,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -46225,11 +46156,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -46639,7 +46565,7 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -47053,6 +46979,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -47065,6 +46994,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -47077,6 +47009,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -47117,9 +47052,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -47146,9 +47078,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -47174,11 +47103,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -47188,7 +47112,7 @@
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -47491,6 +47415,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -47503,6 +47430,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -47515,6 +47445,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -47555,9 +47488,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -47584,9 +47514,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -47612,11 +47539,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -47626,7 +47548,7 @@
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -48040,6 +47962,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -48052,6 +47977,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -48064,6 +47992,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -48104,9 +48035,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -48133,9 +48061,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -48161,11 +48086,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -48175,7 +48095,7 @@
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -48478,6 +48398,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -48490,6 +48413,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -48502,6 +48428,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -48542,9 +48471,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -48571,9 +48497,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -48599,11 +48522,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -48613,7 +48531,7 @@
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -48916,6 +48834,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -48928,6 +48849,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -48940,6 +48864,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -48980,9 +48907,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -49009,9 +48933,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -49037,11 +48958,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -49051,7 +48967,7 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -49354,6 +49270,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -49366,6 +49285,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -49378,6 +49300,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -49418,9 +49343,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -49447,9 +49369,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -49475,11 +49394,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -49489,7 +49403,7 @@
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -49792,6 +49706,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -49804,6 +49721,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -49816,6 +49736,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -49856,9 +49779,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -49885,9 +49805,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -49913,11 +49830,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -49927,7 +49839,7 @@
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -50230,6 +50142,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -50242,6 +50157,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -50254,6 +50172,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -50294,9 +50215,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -50323,9 +50241,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -50351,11 +50266,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -50365,7 +50275,7 @@
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -50668,6 +50578,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -50680,6 +50593,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -50692,6 +50608,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -50732,9 +50651,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -50761,9 +50677,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -50789,11 +50702,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -50803,7 +50711,7 @@
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -51217,6 +51125,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -51229,6 +51140,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -51241,6 +51155,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -51281,9 +51198,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -51310,9 +51224,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -51338,11 +51249,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -51752,7 +51658,7 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -52055,6 +51961,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -52067,6 +51976,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -52079,6 +51991,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -52119,9 +52034,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -52148,9 +52060,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -52176,11 +52085,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -52190,7 +52094,7 @@
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -52493,6 +52397,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -52505,6 +52412,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -52517,6 +52427,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -52557,9 +52470,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -52586,9 +52496,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -52614,11 +52521,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -52628,7 +52530,7 @@
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -52931,6 +52833,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -52943,6 +52848,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -52955,6 +52863,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -52995,9 +52906,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -53024,9 +52932,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -53052,11 +52957,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -53066,7 +52966,7 @@
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -53369,6 +53269,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -53381,6 +53284,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -53393,6 +53299,9 @@
       <c r="P26">
         <v>35</v>
       </c>
+      <c r="Q26">
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -53433,9 +53342,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>30</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -53462,9 +53368,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>30</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -53490,11 +53393,6 @@
       </c>
       <c r="P30">
         <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -54800,7 +54698,7 @@
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -55214,6 +55112,9 @@
       <c r="D26">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>35</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -55226,6 +55127,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>35</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -55238,6 +55142,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -55278,9 +55185,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>35</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -55307,9 +55211,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>35</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -55335,11 +55236,6 @@
       </c>
       <c r="P30">
         <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -55749,7 +55645,7 @@
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -56163,6 +56059,9 @@
       <c r="D26">
         <v>30</v>
       </c>
+      <c r="E26">
+        <v>35</v>
+      </c>
       <c r="G26" s="1">
         <v>60</v>
       </c>
@@ -56175,6 +56074,9 @@
       <c r="J26">
         <v>30</v>
       </c>
+      <c r="K26">
+        <v>35</v>
+      </c>
       <c r="M26" s="1">
         <v>40</v>
       </c>
@@ -56187,6 +56089,9 @@
       <c r="P26">
         <v>30</v>
       </c>
+      <c r="Q26">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
@@ -56227,9 +56132,6 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="E28">
-        <v>35</v>
-      </c>
       <c r="G28" s="1">
         <v>20</v>
       </c>
@@ -56256,9 +56158,6 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="K29">
-        <v>35</v>
-      </c>
       <c r="M29" s="1">
         <v>4</v>
       </c>
@@ -56284,11 +56183,6 @@
       </c>
       <c r="P30">
         <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="Q31">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="55"/>
   </bookViews>
   <sheets>
     <sheet name="AbandonedShip_HiddenFloorCorr" sheetId="1" state="visible" r:id="rId2"/>
@@ -1319,7 +1319,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1341,6 +1341,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1392,7 +1398,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1402,6 +1408,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -22069,8 +22083,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34728,7 +34742,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -36876,7 +36890,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36899,26 +36913,43 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
@@ -36926,7 +36957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -36973,20 +37004,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="4" t="n">
         <v>20</v>
       </c>
       <c r="G6" s="1" t="n">
@@ -36996,19 +37027,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B7" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="4" t="n">
         <v>2</v>
       </c>
+      <c r="E7" s="4"/>
       <c r="G7" s="1" t="n">
         <v>30</v>
       </c>
@@ -37016,19 +37048,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="4" t="n">
         <v>2</v>
       </c>
+      <c r="E8" s="4"/>
       <c r="G8" s="1" t="n">
         <v>5</v>
       </c>
@@ -37036,19 +37069,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="4" t="n">
         <v>3</v>
       </c>
+      <c r="E9" s="4"/>
       <c r="G9" s="1" t="n">
         <v>4</v>
       </c>
@@ -37056,19 +37090,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="4" t="n">
         <v>3</v>
       </c>
+      <c r="E10" s="4"/>
       <c r="G10" s="1" t="n">
         <v>1</v>
       </c>
@@ -37076,103 +37111,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="4" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="4" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="4" t="n">
         <v>3</v>
       </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="55"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="60"/>
   </bookViews>
   <sheets>
     <sheet name="AbandonedShip_HiddenFloorCorr" sheetId="1" state="visible" r:id="rId2"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6935" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6935" uniqueCount="392">
   <si>
     <t xml:space="preserve">map</t>
   </si>
@@ -724,10 +724,16 @@
     <t xml:space="preserve">LOTAD</t>
   </si>
   <si>
-    <t xml:space="preserve">RALTS</t>
+    <t xml:space="preserve">SEEDOT</t>
   </si>
   <si>
-    <t xml:space="preserve">SEEDOT</t>
+    <t xml:space="preserve">CATERPIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALARIAN_ZIGZAGOON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RALTS</t>
   </si>
   <si>
     <t xml:space="preserve">MAP_ROUTE103</t>
@@ -874,10 +880,16 @@
     <t xml:space="preserve">gRoute117</t>
   </si>
   <si>
-    <t xml:space="preserve">ILLUMISE</t>
+    <t xml:space="preserve">TRIFOX</t>
   </si>
   <si>
-    <t xml:space="preserve">VOLBEAT</t>
+    <t xml:space="preserve">PUDDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZURILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILTANK</t>
   </si>
   <si>
     <t xml:space="preserve">MAP_ROUTE118</t>
@@ -1052,9 +1064,6 @@
   </si>
   <si>
     <t xml:space="preserve">HOOTHOOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILTANK</t>
   </si>
   <si>
     <t xml:space="preserve">MAP_SAFARI_ZONE_NORTHWEST</t>
@@ -2333,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,7 +2350,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,7 +2416,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>25</v>
@@ -2422,7 +2431,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -2442,7 +2451,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -2454,7 +2463,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -2471,7 +2480,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -2483,7 +2492,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -2500,7 +2509,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>27</v>
@@ -2512,7 +2521,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -2529,7 +2538,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -2541,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -2558,7 +2567,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>27</v>
@@ -2572,7 +2581,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>25</v>
@@ -2586,7 +2595,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>27</v>
@@ -2600,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -2614,7 +2623,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -2628,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -2642,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -2811,7 +2820,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -2825,7 +2834,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -2839,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>25</v>
@@ -2895,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,7 +2912,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3346,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,7 +3363,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3769,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,7 +4193,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5006,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5014,7 +5023,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5429,7 +5438,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5983,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5991,7 +6000,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6545,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6553,7 +6562,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7375,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7383,7 +7392,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7484,7 +7493,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -7525,7 +7534,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -7542,7 +7551,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -7554,7 +7563,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>25</v>
@@ -7583,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -7600,7 +7609,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -7628,7 +7637,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -7656,7 +7665,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -7684,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -7937,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7945,7 +7954,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8034,7 +8043,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -8074,7 +8083,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -8114,7 +8123,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -8128,7 +8137,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>26</v>
@@ -8142,7 +8151,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -8170,7 +8179,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>28</v>
@@ -8198,7 +8207,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>30</v>
@@ -8352,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8360,7 +8369,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8461,7 +8470,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -8502,7 +8511,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -8519,7 +8528,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -8531,7 +8540,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>25</v>
@@ -8560,7 +8569,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -8577,7 +8586,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -8605,7 +8614,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -8633,7 +8642,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -8661,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -8914,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8922,7 +8931,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9011,7 +9020,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -9051,7 +9060,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -9091,7 +9100,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -9119,7 +9128,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -9147,7 +9156,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -9175,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -9329,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9337,7 +9346,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9426,7 +9435,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -9466,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -9506,7 +9515,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -9534,7 +9543,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -9562,7 +9571,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -9590,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -9744,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9752,7 +9761,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9901,7 +9910,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -9921,7 +9930,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -9935,7 +9944,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -9949,7 +9958,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -9963,7 +9972,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -9977,7 +9986,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -9991,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10005,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10159,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10167,7 +10176,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10316,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10336,7 +10345,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10350,7 +10359,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10364,7 +10373,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10378,7 +10387,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10392,7 +10401,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10406,7 +10415,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10420,7 +10429,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10574,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10582,7 +10591,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10731,7 +10740,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10751,7 +10760,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10765,7 +10774,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10779,7 +10788,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10793,7 +10802,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10807,7 +10816,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10821,7 +10830,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>39</v>
@@ -10835,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>39</v>
@@ -10989,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10997,7 +11006,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11440,7 +11449,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11448,7 +11457,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11807,7 +11816,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>35</v>
@@ -11821,7 +11830,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -11835,7 +11844,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>5</v>
@@ -12306,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12314,7 +12323,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12383,7 +12392,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -12406,7 +12415,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -12426,7 +12435,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -12446,7 +12455,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -12466,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -12658,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12666,7 +12675,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12735,7 +12744,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -12758,7 +12767,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -12778,7 +12787,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -12798,7 +12807,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -12818,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -13010,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13018,7 +13027,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13107,7 +13116,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13127,7 +13136,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13215,7 +13224,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
@@ -13425,7 +13434,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13433,7 +13442,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13534,7 +13543,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13563,7 +13572,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13592,7 +13601,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -13650,7 +13659,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
@@ -13678,7 +13687,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>42</v>
@@ -13692,7 +13701,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -13706,7 +13715,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -13720,7 +13729,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>42</v>
@@ -13734,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -13888,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13896,7 +13905,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14026,7 +14035,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -14055,7 +14064,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -14155,7 +14164,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -14169,7 +14178,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>42</v>
@@ -14183,7 +14192,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>44</v>
@@ -14197,7 +14206,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>44</v>
@@ -34742,7 +34751,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -37332,7 +37341,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -37435,7 +37444,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>3</v>
@@ -37470,7 +37479,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3</v>
@@ -37528,7 +37537,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>4</v>
@@ -37557,7 +37566,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -37586,7 +37595,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>4</v>
@@ -37628,7 +37637,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
@@ -37642,7 +37651,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>4</v>
@@ -37656,7 +37665,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
@@ -37670,7 +37679,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3</v>
@@ -37923,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37931,7 +37940,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38148,7 +38157,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -38162,7 +38171,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -38176,7 +38185,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
@@ -38485,7 +38494,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38493,7 +38502,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39047,7 +39056,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39055,7 +39064,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39498,7 +39507,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39506,7 +39515,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39949,7 +39958,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39957,7 +39966,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40400,7 +40409,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40408,7 +40417,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40851,7 +40860,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40859,7 +40868,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41302,7 +41311,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41310,7 +41319,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41411,7 +41420,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>12</v>
@@ -41440,7 +41449,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>12</v>
@@ -41469,7 +41478,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>13</v>
@@ -41498,7 +41507,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>13</v>
@@ -41527,7 +41536,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>13</v>
@@ -41541,7 +41550,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>13</v>
@@ -41555,7 +41564,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>13</v>
@@ -41597,7 +41606,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>12</v>
@@ -41611,7 +41620,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>13</v>
@@ -42279,7 +42288,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42287,7 +42296,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42514,7 +42523,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>19</v>
@@ -42552,7 +42561,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>21</v>
@@ -42594,7 +42603,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>20</v>
@@ -42608,7 +42617,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>20</v>
@@ -42622,7 +42631,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>22</v>
@@ -42636,7 +42645,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>22</v>
@@ -42889,7 +42898,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42897,7 +42906,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43304,7 +43313,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43312,7 +43321,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43378,7 +43387,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>15</v>
@@ -43401,7 +43410,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>15</v>
@@ -43441,7 +43450,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>14</v>
@@ -43461,7 +43470,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>14</v>
@@ -43495,7 +43504,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>16</v>
@@ -43523,7 +43532,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>16</v>
@@ -43537,7 +43546,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>16</v>
@@ -43551,7 +43560,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>16</v>
@@ -43565,7 +43574,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>16</v>
@@ -43719,7 +43728,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43727,7 +43736,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43793,7 +43802,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>16</v>
@@ -43878,7 +43887,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>17</v>
@@ -43916,7 +43925,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>15</v>
@@ -43992,7 +44001,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>16</v>
@@ -44006,7 +44015,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>16</v>
@@ -44020,7 +44029,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>18</v>
@@ -44034,7 +44043,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>17</v>
@@ -44048,7 +44057,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>15</v>
@@ -44062,7 +44071,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>17</v>
@@ -44076,7 +44085,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>15</v>
@@ -44329,7 +44338,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44337,7 +44346,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44403,7 +44412,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>23</v>
@@ -44467,7 +44476,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -44554,7 +44563,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>25</v>
@@ -44568,7 +44577,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>24</v>
@@ -44582,7 +44591,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>25</v>
@@ -44891,7 +44900,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44899,7 +44908,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45008,7 +45017,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6</v>
@@ -45048,7 +45057,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>7</v>
@@ -45138,7 +45147,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>7</v>
@@ -45152,7 +45161,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>8</v>
@@ -45306,7 +45315,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45314,7 +45323,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45380,13 +45389,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>20</v>
@@ -45415,13 +45424,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -45444,13 +45453,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
@@ -45473,13 +45482,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -45502,13 +45511,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -45531,13 +45540,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45545,13 +45554,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>243</v>
+        <v>62</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45559,41 +45568,41 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>243</v>
+        <v>62</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45601,13 +45610,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45615,13 +45624,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45868,7 +45877,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45876,7 +45885,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45977,7 +45986,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>24</v>
@@ -46035,7 +46044,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>26</v>
@@ -46064,7 +46073,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>26</v>
@@ -46093,7 +46102,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -46177,7 +46186,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -46320,7 +46329,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -46334,7 +46343,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -46346,7 +46355,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -46360,7 +46369,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -46374,7 +46383,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -46430,7 +46439,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46438,7 +46447,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46539,7 +46548,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>25</v>
@@ -46597,7 +46606,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -46626,7 +46635,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -46655,7 +46664,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -46669,7 +46678,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>27</v>
@@ -46683,7 +46692,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>24</v>
@@ -46697,7 +46706,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -46711,7 +46720,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>26</v>
@@ -46725,7 +46734,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -46739,7 +46748,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -46841,7 +46850,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -46882,7 +46891,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -46896,7 +46905,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -46908,7 +46917,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -46922,7 +46931,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -46936,7 +46945,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -46992,7 +47001,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47000,7 +47009,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47101,7 +47110,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>25</v>
@@ -47130,7 +47139,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>27</v>
@@ -47159,7 +47168,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -47217,7 +47226,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -47231,7 +47240,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>27</v>
@@ -47259,7 +47268,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -47273,7 +47282,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -47287,7 +47296,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>25</v>
@@ -47301,7 +47310,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -47969,7 +47978,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47977,7 +47986,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48107,7 +48116,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -48165,7 +48174,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>28</v>
@@ -48194,7 +48203,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -48208,7 +48217,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>28</v>
@@ -48222,7 +48231,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>28</v>
@@ -48278,7 +48287,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -48531,7 +48540,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48539,7 +48548,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48982,7 +48991,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48990,7 +48999,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49120,7 +49129,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -49178,7 +49187,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>28</v>
@@ -49207,7 +49216,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -49221,7 +49230,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>28</v>
@@ -49235,7 +49244,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>28</v>
@@ -49291,7 +49300,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -49544,7 +49553,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49552,7 +49561,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49995,7 +50004,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50003,7 +50012,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50446,7 +50455,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50454,7 +50463,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50897,7 +50906,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50905,7 +50914,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51348,7 +51357,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51356,7 +51365,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51799,7 +51808,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51807,7 +51816,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51959,7 +51968,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -52250,7 +52259,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52258,7 +52267,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52324,7 +52333,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>30</v>
@@ -52359,7 +52368,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>35</v>
@@ -52388,7 +52397,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -52417,7 +52426,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -52446,7 +52455,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>20</v>
@@ -52475,7 +52484,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>45</v>
@@ -52489,7 +52498,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>15</v>
@@ -52503,7 +52512,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>50</v>
@@ -52517,7 +52526,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
@@ -52531,7 +52540,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
@@ -52545,7 +52554,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -52559,7 +52568,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>5</v>
@@ -53227,7 +53236,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53235,7 +53244,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53678,7 +53687,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53686,7 +53695,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54045,7 +54054,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -54129,7 +54138,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54137,7 +54146,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54496,7 +54505,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -54580,7 +54589,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54588,7 +54597,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54947,7 +54956,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -55031,7 +55040,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55039,7 +55048,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55446,7 +55455,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55454,7 +55463,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55520,7 +55529,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -55555,7 +55564,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -55584,7 +55593,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>29</v>
@@ -55613,7 +55622,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>29</v>
@@ -55642,7 +55651,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -55671,7 +55680,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>29</v>
@@ -55685,7 +55694,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>31</v>
@@ -55699,7 +55708,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>29</v>
@@ -55713,7 +55722,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -55727,7 +55736,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -55741,7 +55750,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>31</v>
@@ -55755,7 +55764,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -55909,7 +55918,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55917,7 +55926,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56105,7 +56114,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>34</v>
@@ -56134,7 +56143,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>33</v>
@@ -56148,7 +56157,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>35</v>
@@ -56190,7 +56199,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>37</v>
@@ -56218,7 +56227,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>40</v>
@@ -56372,7 +56381,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56380,7 +56389,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56446,7 +56455,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -56461,7 +56470,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -56481,7 +56490,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -56493,7 +56502,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -56510,7 +56519,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>29</v>
@@ -56522,7 +56531,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -56539,7 +56548,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>29</v>
@@ -56551,7 +56560,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -56568,7 +56577,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -56580,7 +56589,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -56597,7 +56606,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>29</v>
@@ -56611,7 +56620,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>31</v>
@@ -56625,7 +56634,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>29</v>
@@ -56639,7 +56648,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -56653,7 +56662,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -56667,7 +56676,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>31</v>
@@ -56681,7 +56690,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -56850,7 +56859,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -56864,7 +56873,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -56878,7 +56887,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>25</v>
@@ -56934,7 +56943,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56942,7 +56951,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57008,7 +57017,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>25</v>
@@ -57031,7 +57040,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -57051,7 +57060,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -57071,7 +57080,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>27</v>
@@ -57091,7 +57100,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -57111,7 +57120,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>25</v>
@@ -57125,7 +57134,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>25</v>
@@ -57139,7 +57148,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>27</v>
@@ -57153,7 +57162,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -57167,7 +57176,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -57181,7 +57190,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -57195,7 +57204,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -57349,7 +57358,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57357,7 +57366,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57423,7 +57432,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>33</v>
@@ -57438,7 +57447,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>25</v>
@@ -57487,7 +57496,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>35</v>
@@ -57557,7 +57566,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>35</v>
@@ -57574,7 +57583,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>33</v>
@@ -57588,7 +57597,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>35</v>
@@ -57602,7 +57611,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>34</v>
@@ -57630,7 +57639,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>37</v>
@@ -57658,7 +57667,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>40</v>
@@ -57801,7 +57810,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>25</v>
@@ -57815,7 +57824,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>30</v>
@@ -57827,7 +57836,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -57841,7 +57850,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>30</v>
@@ -57855,7 +57864,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>35</v>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="60"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="75"/>
   </bookViews>
   <sheets>
     <sheet name="AbandonedShip_HiddenFloorCorr" sheetId="1" state="visible" r:id="rId2"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6935" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6935" uniqueCount="395">
   <si>
     <t xml:space="preserve">map</t>
   </si>
@@ -685,7 +685,7 @@
     <t xml:space="preserve">gPetalburgWoods</t>
   </si>
   <si>
-    <t xml:space="preserve">POOCHYENA</t>
+    <t xml:space="preserve">TREECKO</t>
   </si>
   <si>
     <t xml:space="preserve">WURMPLE</t>
@@ -700,9 +700,6 @@
     <t xml:space="preserve">CASCOON</t>
   </si>
   <si>
-    <t xml:space="preserve">TAILLOW</t>
-  </si>
-  <si>
     <t xml:space="preserve">SLAKOTH</t>
   </si>
   <si>
@@ -710,6 +707,9 @@
   </si>
   <si>
     <t xml:space="preserve">gRoute101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POOCHYENA</t>
   </si>
   <si>
     <t xml:space="preserve">ZIGZAGOON</t>
@@ -749,6 +749,18 @@
   </si>
   <si>
     <t xml:space="preserve">gRoute104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUDKIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEEDLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZURILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAILLOW</t>
   </si>
   <si>
     <t xml:space="preserve">MAP_ROUTE105</t>
@@ -880,13 +892,10 @@
     <t xml:space="preserve">gRoute117</t>
   </si>
   <si>
-    <t xml:space="preserve">TRIFOX</t>
-  </si>
-  <si>
     <t xml:space="preserve">PUDDI</t>
   </si>
   <si>
-    <t xml:space="preserve">AZURILL</t>
+    <t xml:space="preserve">MEOWSY</t>
   </si>
   <si>
     <t xml:space="preserve">MILTANK</t>
@@ -2342,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,7 +2359,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,7 +2425,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>25</v>
@@ -2431,7 +2440,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -2451,7 +2460,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -2463,7 +2472,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -2480,7 +2489,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -2492,7 +2501,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -2509,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>27</v>
@@ -2521,7 +2530,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -2538,7 +2547,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -2550,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -2567,7 +2576,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>27</v>
@@ -2581,7 +2590,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>25</v>
@@ -2595,7 +2604,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>27</v>
@@ -2609,7 +2618,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -2623,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -2637,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -2651,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -2820,7 +2829,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -2834,7 +2843,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -2848,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>25</v>
@@ -2904,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2912,7 +2921,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3363,7 +3372,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3770,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3778,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4185,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4193,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4600,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4608,7 +4617,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5015,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5023,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5430,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5438,7 +5447,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5992,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6000,7 +6009,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6554,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6562,7 +6571,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7384,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7392,7 +7401,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7493,7 +7502,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -7534,7 +7543,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -7551,7 +7560,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -7563,7 +7572,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>25</v>
@@ -7592,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -7609,7 +7618,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -7637,7 +7646,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -7665,7 +7674,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -7693,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -7946,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7954,7 +7963,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8043,7 +8052,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -8083,7 +8092,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -8123,7 +8132,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -8137,7 +8146,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>26</v>
@@ -8151,7 +8160,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -8179,7 +8188,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>28</v>
@@ -8207,7 +8216,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>30</v>
@@ -8361,7 +8370,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8369,7 +8378,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8470,7 +8479,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -8511,7 +8520,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -8528,7 +8537,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -8540,7 +8549,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>25</v>
@@ -8569,7 +8578,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -8586,7 +8595,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -8614,7 +8623,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -8642,7 +8651,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -8670,7 +8679,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -8923,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8931,7 +8940,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9020,7 +9029,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -9060,7 +9069,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -9100,7 +9109,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -9128,7 +9137,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -9156,7 +9165,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -9184,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -9338,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9346,7 +9355,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9435,7 +9444,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -9475,7 +9484,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -9515,7 +9524,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -9543,7 +9552,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -9571,7 +9580,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -9599,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -9753,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9761,7 +9770,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9910,7 +9919,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -9930,7 +9939,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -9944,7 +9953,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -9958,7 +9967,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -9972,7 +9981,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -9986,7 +9995,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10000,7 +10009,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10014,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10168,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10176,7 +10185,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10325,7 +10334,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10345,7 +10354,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10359,7 +10368,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10373,7 +10382,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10387,7 +10396,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10401,7 +10410,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10415,7 +10424,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10429,7 +10438,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10583,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10591,7 +10600,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10740,7 +10749,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10760,7 +10769,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10774,7 +10783,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10788,7 +10797,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10802,7 +10811,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10816,7 +10825,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10830,7 +10839,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>39</v>
@@ -10844,7 +10853,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>39</v>
@@ -10998,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11006,7 +11015,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11449,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11457,7 +11466,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11816,7 +11825,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>35</v>
@@ -11830,7 +11839,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -11844,7 +11853,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>5</v>
@@ -12315,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12323,7 +12332,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12392,7 +12401,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -12415,7 +12424,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -12435,7 +12444,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -12455,7 +12464,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -12475,7 +12484,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -12667,7 +12676,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12675,7 +12684,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12744,7 +12753,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -12767,7 +12776,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -12787,7 +12796,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -12807,7 +12816,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -12827,7 +12836,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -13019,7 +13028,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13027,7 +13036,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13116,7 +13125,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13136,7 +13145,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13224,7 +13233,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
@@ -13434,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13442,7 +13451,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13543,7 +13552,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13572,7 +13581,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13601,7 +13610,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -13659,7 +13668,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
@@ -13687,7 +13696,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>42</v>
@@ -13701,7 +13710,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -13715,7 +13724,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -13729,7 +13738,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>42</v>
@@ -13743,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -13897,7 +13906,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13905,7 +13914,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14035,7 +14044,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -14064,7 +14073,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -14164,7 +14173,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -14178,7 +14187,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>42</v>
@@ -14192,7 +14201,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>44</v>
@@ -14206,7 +14215,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>44</v>
@@ -36166,7 +36175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>20</v>
       </c>
@@ -36234,7 +36243,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>6</v>
@@ -36330,7 +36339,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
@@ -36358,7 +36367,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>6</v>
@@ -36927,7 +36936,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -36938,7 +36947,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -37041,7 +37050,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>2</v>
@@ -37104,7 +37113,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>3</v>
@@ -37125,7 +37134,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>3</v>
@@ -37155,7 +37164,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>3</v>
@@ -37341,8 +37350,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37508,13 +37517,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
@@ -37537,13 +37546,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -37904,7 +37913,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38006,7 +38015,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -38041,7 +38050,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3</v>
@@ -38070,7 +38079,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -38099,7 +38108,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>4</v>
@@ -38199,7 +38208,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -38227,7 +38236,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2</v>
@@ -38466,7 +38475,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38568,13 +38577,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>20</v>
@@ -38603,7 +38612,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>4</v>
@@ -38632,7 +38641,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>5</v>
@@ -38661,7 +38670,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>5</v>
@@ -38690,7 +38699,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>4</v>
@@ -38719,7 +38728,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>5</v>
@@ -38733,7 +38742,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
@@ -38747,7 +38756,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>5</v>
@@ -38761,7 +38770,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
@@ -38775,7 +38784,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>4</v>
@@ -38789,7 +38798,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3</v>
@@ -38803,7 +38812,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>5</v>
@@ -39056,7 +39065,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39064,7 +39073,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39507,7 +39516,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39515,7 +39524,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39958,7 +39967,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39966,7 +39975,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40409,7 +40418,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40417,7 +40426,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40860,7 +40869,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40868,7 +40877,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41311,7 +41320,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41319,7 +41328,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41385,7 +41394,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>12</v>
@@ -41420,7 +41429,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>12</v>
@@ -41449,7 +41458,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>12</v>
@@ -41478,7 +41487,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>13</v>
@@ -41507,7 +41516,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>13</v>
@@ -41536,7 +41545,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>13</v>
@@ -41550,7 +41559,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>13</v>
@@ -41564,7 +41573,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>13</v>
@@ -41606,7 +41615,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>12</v>
@@ -41620,7 +41629,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>13</v>
@@ -42288,7 +42297,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42296,7 +42305,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42523,7 +42532,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>19</v>
@@ -42561,7 +42570,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>21</v>
@@ -42603,7 +42612,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>20</v>
@@ -42617,7 +42626,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>20</v>
@@ -42631,7 +42640,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>22</v>
@@ -42645,7 +42654,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>22</v>
@@ -42898,7 +42907,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42906,7 +42915,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43313,7 +43322,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43321,7 +43330,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43387,7 +43396,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>15</v>
@@ -43410,7 +43419,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>15</v>
@@ -43450,7 +43459,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>14</v>
@@ -43470,7 +43479,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>14</v>
@@ -43504,7 +43513,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>16</v>
@@ -43532,7 +43541,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>16</v>
@@ -43546,7 +43555,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>16</v>
@@ -43560,7 +43569,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>16</v>
@@ -43574,7 +43583,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>16</v>
@@ -43728,7 +43737,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43736,7 +43745,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43802,7 +43811,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>16</v>
@@ -43887,7 +43896,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>17</v>
@@ -43925,7 +43934,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>15</v>
@@ -44001,7 +44010,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>16</v>
@@ -44015,7 +44024,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>16</v>
@@ -44029,7 +44038,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>18</v>
@@ -44043,7 +44052,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>17</v>
@@ -44057,7 +44066,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>15</v>
@@ -44071,7 +44080,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>17</v>
@@ -44085,7 +44094,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>15</v>
@@ -44338,7 +44347,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44346,7 +44355,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44412,7 +44421,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>23</v>
@@ -44447,7 +44456,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>23</v>
@@ -44476,7 +44485,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -44505,7 +44514,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>24</v>
@@ -44534,7 +44543,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -44563,7 +44572,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>25</v>
@@ -44577,7 +44586,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>24</v>
@@ -44591,7 +44600,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>25</v>
@@ -44900,7 +44909,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44908,7 +44917,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44974,7 +44983,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>6</v>
@@ -45017,7 +45026,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6</v>
@@ -45057,7 +45066,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>7</v>
@@ -45077,7 +45086,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>6</v>
@@ -45091,7 +45100,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>7</v>
@@ -45105,7 +45114,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>8</v>
@@ -45119,7 +45128,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>7</v>
@@ -45133,7 +45142,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>8</v>
@@ -45147,7 +45156,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>7</v>
@@ -45161,7 +45170,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>8</v>
@@ -45286,7 +45295,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -45315,7 +45324,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45323,7 +45332,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45389,7 +45398,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4</v>
@@ -45424,7 +45433,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>4</v>
@@ -45453,7 +45462,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>5</v>
@@ -45482,7 +45491,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>5</v>
@@ -45511,7 +45520,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>4</v>
@@ -45540,7 +45549,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>4</v>
@@ -45582,13 +45591,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45596,7 +45605,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>6</v>
@@ -45610,13 +45619,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>248</v>
+        <v>62</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45624,7 +45633,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>7</v>
@@ -45877,7 +45886,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45885,7 +45894,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45986,7 +45995,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>24</v>
@@ -46044,7 +46053,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>26</v>
@@ -46073,7 +46082,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>26</v>
@@ -46102,7 +46111,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -46186,7 +46195,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -46329,7 +46338,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -46343,7 +46352,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -46355,7 +46364,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -46369,7 +46378,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -46383,7 +46392,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -46439,7 +46448,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46447,7 +46456,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46548,7 +46557,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>25</v>
@@ -46606,7 +46615,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -46635,7 +46644,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -46664,7 +46673,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -46678,7 +46687,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>27</v>
@@ -46692,7 +46701,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>24</v>
@@ -46706,7 +46715,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -46720,7 +46729,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>26</v>
@@ -46734,7 +46743,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -46748,7 +46757,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -46850,7 +46859,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -46891,7 +46900,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -46905,7 +46914,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -46917,7 +46926,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -46931,7 +46940,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -46945,7 +46954,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -47001,7 +47010,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47009,7 +47018,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47075,7 +47084,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>25</v>
@@ -47110,7 +47119,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>25</v>
@@ -47139,7 +47148,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>27</v>
@@ -47168,7 +47177,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -47226,7 +47235,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -47240,7 +47249,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>27</v>
@@ -47268,7 +47277,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -47282,7 +47291,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -47296,7 +47305,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>25</v>
@@ -47978,7 +47987,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47986,7 +47995,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48052,7 +48061,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>26</v>
@@ -48116,7 +48125,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -48174,7 +48183,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>28</v>
@@ -48203,7 +48212,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -48217,7 +48226,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>28</v>
@@ -48231,7 +48240,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>28</v>
@@ -48287,7 +48296,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -48540,7 +48549,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48548,7 +48557,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48991,7 +49000,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48999,7 +49008,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49065,7 +49074,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>26</v>
@@ -49129,7 +49138,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -49187,7 +49196,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>28</v>
@@ -49216,7 +49225,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -49230,7 +49239,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>28</v>
@@ -49244,7 +49253,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>28</v>
@@ -49300,7 +49309,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -49553,7 +49562,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49561,7 +49570,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50004,7 +50013,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50012,7 +50021,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50455,7 +50464,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50463,7 +50472,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50906,7 +50915,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50914,7 +50923,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51357,7 +51366,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51365,7 +51374,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51808,7 +51817,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51816,7 +51825,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51968,7 +51977,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -52259,7 +52268,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52267,7 +52276,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52333,7 +52342,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>30</v>
@@ -52368,7 +52377,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>35</v>
@@ -52397,7 +52406,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -52426,7 +52435,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -52455,7 +52464,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>20</v>
@@ -52484,7 +52493,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>45</v>
@@ -52498,7 +52507,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>15</v>
@@ -52512,7 +52521,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>50</v>
@@ -52526,7 +52535,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
@@ -52540,7 +52549,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
@@ -52554,7 +52563,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -52568,7 +52577,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>5</v>
@@ -53236,7 +53245,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53244,7 +53253,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53687,7 +53696,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53695,7 +53704,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54054,7 +54063,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -54138,7 +54147,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54146,7 +54155,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54505,7 +54514,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -54589,7 +54598,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54597,7 +54606,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54956,7 +54965,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -55040,7 +55049,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55048,7 +55057,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55455,7 +55464,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55463,7 +55472,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55529,7 +55538,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -55564,7 +55573,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -55593,7 +55602,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>29</v>
@@ -55622,7 +55631,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>29</v>
@@ -55651,7 +55660,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -55680,7 +55689,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>29</v>
@@ -55694,7 +55703,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>31</v>
@@ -55708,7 +55717,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>29</v>
@@ -55722,7 +55731,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -55736,7 +55745,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -55750,7 +55759,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>31</v>
@@ -55764,7 +55773,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -55918,7 +55927,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55926,7 +55935,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56114,7 +56123,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>34</v>
@@ -56143,7 +56152,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>33</v>
@@ -56157,7 +56166,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>35</v>
@@ -56199,7 +56208,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>37</v>
@@ -56227,7 +56236,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>40</v>
@@ -56381,7 +56390,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56389,7 +56398,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56455,7 +56464,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -56470,7 +56479,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -56490,7 +56499,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -56502,7 +56511,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -56519,7 +56528,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>29</v>
@@ -56531,7 +56540,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -56548,7 +56557,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>29</v>
@@ -56560,7 +56569,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -56577,7 +56586,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -56589,7 +56598,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -56606,7 +56615,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>29</v>
@@ -56620,7 +56629,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>31</v>
@@ -56634,7 +56643,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>29</v>
@@ -56648,7 +56657,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -56662,7 +56671,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -56676,7 +56685,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>31</v>
@@ -56690,7 +56699,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -56859,7 +56868,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -56873,7 +56882,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -56887,7 +56896,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>25</v>
@@ -56943,7 +56952,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56951,7 +56960,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57017,7 +57026,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>25</v>
@@ -57040,7 +57049,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -57060,7 +57069,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -57080,7 +57089,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>27</v>
@@ -57100,7 +57109,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -57120,7 +57129,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>25</v>
@@ -57134,7 +57143,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>25</v>
@@ -57148,7 +57157,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>27</v>
@@ -57162,7 +57171,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -57176,7 +57185,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -57190,7 +57199,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -57204,7 +57213,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -57358,7 +57367,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57366,7 +57375,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57432,7 +57441,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>33</v>
@@ -57447,7 +57456,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>25</v>
@@ -57496,7 +57505,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>35</v>
@@ -57566,7 +57575,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>35</v>
@@ -57583,7 +57592,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>33</v>
@@ -57597,7 +57606,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>35</v>
@@ -57611,7 +57620,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>34</v>
@@ -57639,7 +57648,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>37</v>
@@ -57667,7 +57676,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>40</v>
@@ -57810,7 +57819,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>25</v>
@@ -57824,7 +57833,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>30</v>
@@ -57836,7 +57845,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -57850,7 +57859,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>30</v>
@@ -57864,7 +57873,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>35</v>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6935" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6935" uniqueCount="396">
   <si>
     <t xml:space="preserve">map</t>
   </si>
@@ -895,7 +895,7 @@
     <t xml:space="preserve">PUDDI</t>
   </si>
   <si>
-    <t xml:space="preserve">MEOWSY</t>
+    <t xml:space="preserve">TORCHIC</t>
   </si>
   <si>
     <t xml:space="preserve">MILTANK</t>
@@ -1040,6 +1040,9 @@
   </si>
   <si>
     <t xml:space="preserve">gRusturfTunnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONSLY</t>
   </si>
   <si>
     <t xml:space="preserve">MAP_SAFARI_ZONE_NORTH</t>
@@ -2351,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2359,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,7 +2443,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -2472,7 +2475,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -2489,7 +2492,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -2501,7 +2504,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -2518,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>27</v>
@@ -2530,7 +2533,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -2547,7 +2550,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -2559,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -2576,7 +2579,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>27</v>
@@ -2604,7 +2607,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>27</v>
@@ -2618,7 +2621,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -2632,7 +2635,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -2646,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -2660,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -2829,7 +2832,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -2843,7 +2846,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -2857,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>25</v>
@@ -2913,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3787,7 +3790,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,7 +4205,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4609,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,7 +4620,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5439,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5447,7 +5450,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6001,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6009,7 +6012,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6571,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7393,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7401,7 +7404,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7502,7 +7505,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -7543,7 +7546,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -7560,7 +7563,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -7572,7 +7575,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>25</v>
@@ -7601,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -7618,7 +7621,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -7646,7 +7649,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -7674,7 +7677,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -7702,7 +7705,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -7955,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7963,7 +7966,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8052,7 +8055,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -8092,7 +8095,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -8132,7 +8135,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -8146,7 +8149,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>26</v>
@@ -8160,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -8188,7 +8191,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>28</v>
@@ -8216,7 +8219,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>30</v>
@@ -8370,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8378,7 +8381,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8479,7 +8482,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -8520,7 +8523,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -8537,7 +8540,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -8549,7 +8552,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>25</v>
@@ -8578,7 +8581,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -8595,7 +8598,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -8623,7 +8626,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -8651,7 +8654,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -8679,7 +8682,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -8932,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8940,7 +8943,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9029,7 +9032,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -9069,7 +9072,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -9109,7 +9112,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -9137,7 +9140,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -9165,7 +9168,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -9193,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -9347,7 +9350,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9355,7 +9358,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9444,7 +9447,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -9484,7 +9487,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -9524,7 +9527,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -9552,7 +9555,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -9580,7 +9583,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -9608,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -9762,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9770,7 +9773,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9919,7 +9922,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -9939,7 +9942,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -9953,7 +9956,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -9967,7 +9970,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -9981,7 +9984,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -9995,7 +9998,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10009,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10023,7 +10026,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10177,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10185,7 +10188,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10334,7 +10337,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10354,7 +10357,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10368,7 +10371,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10382,7 +10385,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10396,7 +10399,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10410,7 +10413,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10424,7 +10427,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10438,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10592,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10600,7 +10603,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10749,7 +10752,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10769,7 +10772,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10783,7 +10786,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10797,7 +10800,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10811,7 +10814,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10825,7 +10828,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10839,7 +10842,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>39</v>
@@ -10853,7 +10856,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>39</v>
@@ -11007,7 +11010,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11015,7 +11018,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11458,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11466,7 +11469,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11825,7 +11828,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>35</v>
@@ -11839,7 +11842,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -11853,7 +11856,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>5</v>
@@ -12324,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12332,7 +12335,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12401,7 +12404,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -12424,7 +12427,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -12444,7 +12447,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -12464,7 +12467,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -12484,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -12676,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12684,7 +12687,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12753,7 +12756,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -12776,7 +12779,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -12796,7 +12799,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -12816,7 +12819,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -12836,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -13028,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13036,7 +13039,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13125,7 +13128,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13145,7 +13148,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13233,7 +13236,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
@@ -13443,7 +13446,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13451,7 +13454,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13552,7 +13555,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13581,7 +13584,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13610,7 +13613,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -13668,7 +13671,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
@@ -13696,7 +13699,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>42</v>
@@ -13710,7 +13713,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -13724,7 +13727,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -13738,7 +13741,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>42</v>
@@ -13752,7 +13755,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -13906,7 +13909,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13914,7 +13917,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14044,7 +14047,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -14073,7 +14076,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -14173,7 +14176,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -14187,7 +14190,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>42</v>
@@ -14201,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>44</v>
@@ -14215,7 +14218,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>44</v>
@@ -22102,7 +22105,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22207,10 +22210,10 @@
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>7</v>
@@ -22230,10 +22233,10 @@
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -22250,10 +22253,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
@@ -22270,10 +22273,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -22290,10 +22293,10 @@
         <v>22</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -22310,10 +22313,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22324,10 +22327,10 @@
         <v>25</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22338,10 +22341,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22352,10 +22355,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22366,10 +22369,10 @@
         <v>27</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22380,10 +22383,10 @@
         <v>26</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22394,10 +22397,10 @@
         <v>27</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36078,7 +36081,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36183,10 +36186,10 @@
         <v>180</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>20</v>
@@ -36206,10 +36209,10 @@
         <v>181</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -36226,10 +36229,10 @@
         <v>182</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
@@ -36246,10 +36249,10 @@
         <v>182</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -36266,10 +36269,10 @@
         <v>183</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -36286,10 +36289,10 @@
         <v>184</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36314,10 +36317,10 @@
         <v>182</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36328,10 +36331,10 @@
         <v>185</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36342,10 +36345,10 @@
         <v>185</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36356,10 +36359,10 @@
         <v>185</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36370,10 +36373,10 @@
         <v>185</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37351,7 +37354,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37456,10 +37459,10 @@
         <v>192</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>20</v>
@@ -37491,10 +37494,10 @@
         <v>193</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -37578,10 +37581,10 @@
         <v>194</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -37607,10 +37610,10 @@
         <v>194</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37621,10 +37624,10 @@
         <v>189</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37635,10 +37638,10 @@
         <v>189</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37649,10 +37652,10 @@
         <v>195</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37663,10 +37666,10 @@
         <v>196</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37677,10 +37680,10 @@
         <v>195</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37691,10 +37694,10 @@
         <v>196</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38475,7 +38478,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38580,10 +38583,10 @@
         <v>202</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>20</v>
@@ -38615,10 +38618,10 @@
         <v>203</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -38673,10 +38676,10 @@
         <v>204</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -38702,10 +38705,10 @@
         <v>205</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -38745,10 +38748,10 @@
         <v>205</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38759,10 +38762,10 @@
         <v>205</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38773,10 +38776,10 @@
         <v>203</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38787,10 +38790,10 @@
         <v>205</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38801,10 +38804,10 @@
         <v>203</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38815,10 +38818,10 @@
         <v>205</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45401,10 +45404,10 @@
         <v>249</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>20</v>
@@ -45433,13 +45436,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -45465,10 +45468,10 @@
         <v>249</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
@@ -45491,13 +45494,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -45520,13 +45523,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -45549,13 +45552,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45566,10 +45569,10 @@
         <v>62</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45580,10 +45583,10 @@
         <v>62</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45594,10 +45597,10 @@
         <v>62</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45608,10 +45611,10 @@
         <v>251</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45622,10 +45625,10 @@
         <v>62</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45636,10 +45639,10 @@
         <v>251</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55021,7 +55024,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -55126,10 +55129,10 @@
         <v>63</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>10</v>
@@ -55149,10 +55152,10 @@
         <v>63</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -55169,10 +55172,10 @@
         <v>63</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
@@ -55189,10 +55192,10 @@
         <v>63</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -55209,10 +55212,10 @@
         <v>63</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -55229,10 +55232,10 @@
         <v>63</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55240,13 +55243,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55254,13 +55257,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55268,13 +55271,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55282,13 +55285,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55296,13 +55299,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55310,13 +55313,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55464,7 +55467,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55472,7 +55475,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55538,7 +55541,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -55602,7 +55605,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>29</v>
@@ -55660,7 +55663,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -55717,7 +55720,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>29</v>
@@ -55731,7 +55734,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -55745,7 +55748,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -55759,7 +55762,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>31</v>
@@ -55773,7 +55776,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -55927,7 +55930,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55935,7 +55938,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56123,7 +56126,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>34</v>
@@ -56152,7 +56155,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>33</v>
@@ -56166,7 +56169,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>35</v>
@@ -56390,7 +56393,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56398,7 +56401,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56464,7 +56467,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -56479,7 +56482,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -56511,7 +56514,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -56528,7 +56531,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>29</v>
@@ -56540,7 +56543,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -56569,7 +56572,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -56586,7 +56589,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -56598,7 +56601,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -56643,7 +56646,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>29</v>
@@ -56657,7 +56660,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -56671,7 +56674,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -56685,7 +56688,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>31</v>
@@ -56699,7 +56702,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -56868,7 +56871,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -56882,7 +56885,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -56896,7 +56899,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>25</v>
@@ -56952,7 +56955,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56960,7 +56963,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57069,7 +57072,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -57089,7 +57092,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>27</v>
@@ -57109,7 +57112,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -57129,7 +57132,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>25</v>
@@ -57157,7 +57160,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>27</v>
@@ -57171,7 +57174,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -57185,7 +57188,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -57199,7 +57202,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -57213,7 +57216,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -57367,7 +57370,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57375,7 +57378,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57441,7 +57444,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>33</v>
@@ -57456,7 +57459,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>25</v>
@@ -57505,7 +57508,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>35</v>
@@ -57575,7 +57578,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>35</v>
@@ -57592,7 +57595,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>33</v>
@@ -57606,7 +57609,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>35</v>
@@ -57620,7 +57623,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>34</v>
@@ -57648,7 +57651,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>37</v>
@@ -57676,7 +57679,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>40</v>
@@ -57819,7 +57822,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>25</v>
@@ -57833,7 +57836,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>30</v>
@@ -57845,7 +57848,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -57859,7 +57862,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>30</v>
@@ -57873,7 +57876,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>35</v>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="75"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="74"/>
   </bookViews>
   <sheets>
     <sheet name="AbandonedShip_HiddenFloorCorr" sheetId="1" state="visible" r:id="rId2"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6935" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6935" uniqueCount="399">
   <si>
     <t xml:space="preserve">map</t>
   </si>
@@ -880,10 +880,19 @@
     <t xml:space="preserve">gRoute116</t>
   </si>
   <si>
+    <t xml:space="preserve">CYNDAQUIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEOWSY</t>
+  </si>
+  <si>
     <t xml:space="preserve">NINCADA</t>
   </si>
   <si>
     <t xml:space="preserve">SKITTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEVEE</t>
   </si>
   <si>
     <t xml:space="preserve">MAP_ROUTE117</t>
@@ -2354,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,7 +2452,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -2475,7 +2484,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -2492,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -2504,7 +2513,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -2521,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>27</v>
@@ -2533,7 +2542,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -2550,7 +2559,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -2562,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -2579,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>27</v>
@@ -2593,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>25</v>
@@ -2607,7 +2616,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>27</v>
@@ -2621,7 +2630,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -2635,7 +2644,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -2649,7 +2658,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -2663,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -2832,7 +2841,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -2846,7 +2855,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -2860,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>25</v>
@@ -2916,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3790,7 +3799,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4197,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4205,7 +4214,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4612,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4620,7 +4629,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5027,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,7 +5044,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5442,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5450,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6004,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6012,7 +6021,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6566,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6574,7 +6583,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7396,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7404,7 +7413,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7505,7 +7514,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -7546,7 +7555,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -7563,7 +7572,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -7575,7 +7584,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>25</v>
@@ -7604,7 +7613,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -7621,7 +7630,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -7649,7 +7658,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -7677,7 +7686,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -7705,7 +7714,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -7958,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7966,7 +7975,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8055,7 +8064,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -8095,7 +8104,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -8135,7 +8144,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -8149,7 +8158,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>26</v>
@@ -8163,7 +8172,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -8191,7 +8200,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>28</v>
@@ -8219,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>30</v>
@@ -8373,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8381,7 +8390,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8482,7 +8491,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -8523,7 +8532,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -8540,7 +8549,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -8552,7 +8561,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>25</v>
@@ -8581,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -8598,7 +8607,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -8626,7 +8635,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -8654,7 +8663,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -8682,7 +8691,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -8935,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8943,7 +8952,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9032,7 +9041,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -9072,7 +9081,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -9112,7 +9121,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -9140,7 +9149,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -9168,7 +9177,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -9196,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -9350,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9358,7 +9367,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9447,7 +9456,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -9487,7 +9496,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -9527,7 +9536,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -9555,7 +9564,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -9583,7 +9592,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -9611,7 +9620,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -9765,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9773,7 +9782,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9922,7 +9931,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -9942,7 +9951,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -9956,7 +9965,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -9970,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -9984,7 +9993,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -9998,7 +10007,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10012,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10026,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10180,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10188,7 +10197,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10337,7 +10346,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10357,7 +10366,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10371,7 +10380,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10385,7 +10394,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10399,7 +10408,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10413,7 +10422,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10427,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10441,7 +10450,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10595,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10603,7 +10612,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10752,7 +10761,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10772,7 +10781,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10786,7 +10795,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10800,7 +10809,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10814,7 +10823,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10828,7 +10837,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10842,7 +10851,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>39</v>
@@ -10856,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>39</v>
@@ -11010,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11018,7 +11027,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11461,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11469,7 +11478,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11828,7 +11837,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>35</v>
@@ -11842,7 +11851,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -11856,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>5</v>
@@ -12327,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12335,7 +12344,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12404,7 +12413,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -12427,7 +12436,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -12447,7 +12456,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -12467,7 +12476,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -12487,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -12679,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12687,7 +12696,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12756,7 +12765,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -12779,7 +12788,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -12799,7 +12808,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -12819,7 +12828,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -12839,7 +12848,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -13031,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13039,7 +13048,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13128,7 +13137,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13148,7 +13157,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13236,7 +13245,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
@@ -13446,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13454,7 +13463,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13555,7 +13564,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13584,7 +13593,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13613,7 +13622,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -13671,7 +13680,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
@@ -13699,7 +13708,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>42</v>
@@ -13713,7 +13722,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -13727,7 +13736,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -13741,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>42</v>
@@ -13755,7 +13764,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -13909,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13917,7 +13926,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14047,7 +14056,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -14076,7 +14085,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -14176,7 +14185,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -14190,7 +14199,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>42</v>
@@ -14204,7 +14213,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>44</v>
@@ -14218,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>44</v>
@@ -44883,8 +44892,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44986,13 +44995,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>20</v>
@@ -45009,13 +45018,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -45029,13 +45038,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
@@ -45052,10 +45061,10 @@
         <v>85</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -45069,13 +45078,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -45089,13 +45098,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45103,13 +45112,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45117,13 +45126,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45131,13 +45140,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45145,13 +45154,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45159,13 +45168,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45173,13 +45182,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45298,8 +45307,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45327,7 +45336,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45335,7 +45344,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45401,7 +45410,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>9</v>
@@ -45465,7 +45474,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>10</v>
@@ -45523,7 +45532,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>10</v>
@@ -45552,7 +45561,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
@@ -45608,7 +45617,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>10</v>
@@ -45636,7 +45645,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>10</v>
@@ -45889,7 +45898,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45897,7 +45906,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46085,7 +46094,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>26</v>
@@ -46114,7 +46123,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -46198,7 +46207,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -46341,7 +46350,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -46355,7 +46364,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -46367,7 +46376,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -46381,7 +46390,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -46395,7 +46404,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -46451,7 +46460,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46459,7 +46468,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46560,7 +46569,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>25</v>
@@ -46647,7 +46656,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -46718,7 +46727,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -46732,7 +46741,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>26</v>
@@ -46746,7 +46755,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -46760,7 +46769,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -46862,7 +46871,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -46903,7 +46912,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -46917,7 +46926,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -46929,7 +46938,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -46943,7 +46952,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -46957,7 +46966,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -47013,7 +47022,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47021,7 +47030,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47122,7 +47131,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>25</v>
@@ -47151,7 +47160,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>27</v>
@@ -47280,7 +47289,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -47294,7 +47303,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -47308,7 +47317,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>25</v>
@@ -47990,7 +47999,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47998,7 +48007,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48128,7 +48137,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -48186,7 +48195,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>28</v>
@@ -48243,7 +48252,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>28</v>
@@ -48299,7 +48308,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -48552,7 +48561,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48560,7 +48569,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49003,7 +49012,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49011,7 +49020,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49141,7 +49150,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -49199,7 +49208,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>28</v>
@@ -49256,7 +49265,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>28</v>
@@ -49312,7 +49321,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -49565,7 +49574,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49573,7 +49582,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50016,7 +50025,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50024,7 +50033,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50467,7 +50476,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50475,7 +50484,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50918,7 +50927,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50926,7 +50935,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51369,7 +51378,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51377,7 +51386,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51820,7 +51829,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51828,7 +51837,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51980,7 +51989,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -52271,7 +52280,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52279,7 +52288,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52345,7 +52354,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>30</v>
@@ -52380,7 +52389,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>35</v>
@@ -52409,7 +52418,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -52438,7 +52447,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -52467,7 +52476,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>20</v>
@@ -52496,7 +52505,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>45</v>
@@ -52510,7 +52519,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>15</v>
@@ -52524,7 +52533,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>50</v>
@@ -52538,7 +52547,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
@@ -52552,7 +52561,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
@@ -52566,7 +52575,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -52580,7 +52589,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>5</v>
@@ -53248,7 +53257,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53256,7 +53265,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53699,7 +53708,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53707,7 +53716,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54066,7 +54075,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -54150,7 +54159,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54158,7 +54167,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54517,7 +54526,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -54601,7 +54610,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54609,7 +54618,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54968,7 +54977,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -55052,7 +55061,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55060,7 +55069,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55243,7 +55252,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>9</v>
@@ -55257,7 +55266,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>9</v>
@@ -55271,7 +55280,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
@@ -55285,7 +55294,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>10</v>
@@ -55299,7 +55308,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -55313,7 +55322,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>10</v>
@@ -55467,7 +55476,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55475,7 +55484,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55541,7 +55550,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -55605,7 +55614,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>29</v>
@@ -55663,7 +55672,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -55692,7 +55701,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>29</v>
@@ -55706,7 +55715,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>31</v>
@@ -55720,7 +55729,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>29</v>
@@ -55734,7 +55743,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -55748,7 +55757,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -55762,7 +55771,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>31</v>
@@ -55776,7 +55785,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -55930,7 +55939,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55938,7 +55947,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56126,7 +56135,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>34</v>
@@ -56155,7 +56164,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>33</v>
@@ -56169,7 +56178,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>35</v>
@@ -56211,7 +56220,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>37</v>
@@ -56239,7 +56248,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>40</v>
@@ -56393,7 +56402,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56401,7 +56410,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56467,7 +56476,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -56482,7 +56491,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -56514,7 +56523,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -56531,7 +56540,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>29</v>
@@ -56543,7 +56552,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -56572,7 +56581,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -56589,7 +56598,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -56601,7 +56610,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -56618,7 +56627,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>29</v>
@@ -56632,7 +56641,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>31</v>
@@ -56646,7 +56655,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>29</v>
@@ -56660,7 +56669,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -56674,7 +56683,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -56688,7 +56697,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>31</v>
@@ -56702,7 +56711,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -56871,7 +56880,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -56885,7 +56894,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -56899,7 +56908,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>25</v>
@@ -56955,7 +56964,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56963,7 +56972,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57072,7 +57081,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -57092,7 +57101,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>27</v>
@@ -57112,7 +57121,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -57132,7 +57141,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>25</v>
@@ -57146,7 +57155,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>25</v>
@@ -57160,7 +57169,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>27</v>
@@ -57174,7 +57183,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -57188,7 +57197,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -57202,7 +57211,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -57216,7 +57225,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -57370,7 +57379,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57378,7 +57387,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57444,7 +57453,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>33</v>
@@ -57459,7 +57468,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>25</v>
@@ -57508,7 +57517,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>35</v>
@@ -57578,7 +57587,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>35</v>
@@ -57595,7 +57604,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>33</v>
@@ -57609,7 +57618,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>35</v>
@@ -57623,7 +57632,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>34</v>
@@ -57651,7 +57660,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>37</v>
@@ -57679,7 +57688,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>40</v>
@@ -57822,7 +57831,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>25</v>
@@ -57836,7 +57845,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>30</v>
@@ -57848,7 +57857,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -57862,7 +57871,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>30</v>
@@ -57876,7 +57885,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>35</v>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="74"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="113"/>
   </bookViews>
   <sheets>
     <sheet name="AbandonedShip_HiddenFloorCorr" sheetId="1" state="visible" r:id="rId2"/>
@@ -121,7 +121,7 @@
     <sheet name="ShoalCave_LowTideIceRoom" sheetId="111" state="visible" r:id="rId112"/>
     <sheet name="ShoalCave_LowTideInnerRoom" sheetId="112" state="visible" r:id="rId113"/>
     <sheet name="ShoalCave_LowTideLowerRoom" sheetId="113" state="visible" r:id="rId114"/>
-    <sheet name="ShoalCave_LowTideStairsRoom" sheetId="114" state="visible" r:id="rId115"/>
+    <sheet name="SilentForest" sheetId="114" state="visible" r:id="rId115"/>
     <sheet name="SkyPillar_1F" sheetId="115" state="visible" r:id="rId116"/>
     <sheet name="SkyPillar_3F" sheetId="116" state="visible" r:id="rId117"/>
     <sheet name="SkyPillar_5F" sheetId="117" state="visible" r:id="rId118"/>
@@ -1246,10 +1246,10 @@
     <t xml:space="preserve">gShoalCave_LowTideLowerRoom</t>
   </si>
   <si>
-    <t xml:space="preserve">MAP_SHOAL_CAVE_LOW_TIDE_STAIRS_ROOM</t>
+    <t xml:space="preserve">MAP_SILENT_FOREST</t>
   </si>
   <si>
-    <t xml:space="preserve">gShoalCave_LowTideStairsRoom</t>
+    <t xml:space="preserve">gSilentForest</t>
   </si>
   <si>
     <t xml:space="preserve">MAP_SKY_PILLAR_1F</t>
@@ -9330,7 +9330,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -44892,7 +44892,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6935" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6937" uniqueCount="405">
   <si>
     <t xml:space="preserve">map</t>
   </si>
@@ -1252,6 +1252,24 @@
     <t xml:space="preserve">gSilentForest</t>
   </si>
   <si>
+    <t xml:space="preserve">BULBASAUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIDGEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PICHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLOWPOKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEEBAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAP_SKY_PILLAR_1F</t>
   </si>
   <si>
@@ -9331,7 +9349,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9433,16 +9451,16 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>369</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>60</v>
@@ -9456,13 +9474,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -9476,13 +9494,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
@@ -9496,13 +9514,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -9516,13 +9534,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>371</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -9536,13 +9554,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9550,13 +9568,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9564,13 +9582,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9578,13 +9596,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>51</v>
+        <v>372</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9592,13 +9610,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9606,13 +9624,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>51</v>
+        <v>372</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9620,13 +9638,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9691,6 +9709,18 @@
       <c r="A26" s="1" t="n">
         <v>70</v>
       </c>
+      <c r="B26" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="G26" s="1" t="n">
         <v>60</v>
       </c>
@@ -9701,6 +9731,15 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>20</v>
@@ -9774,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9782,7 +9821,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9931,7 +9970,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -9951,7 +9990,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -9965,7 +10004,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -9979,7 +10018,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -9993,7 +10032,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10007,7 +10046,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10021,7 +10060,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10035,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10189,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10197,7 +10236,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10346,7 +10385,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10366,7 +10405,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10380,7 +10419,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10394,7 +10433,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10408,7 +10447,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10422,7 +10461,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10436,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10450,7 +10489,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10604,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10612,7 +10651,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10761,7 +10800,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10781,7 +10820,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10795,7 +10834,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10809,7 +10848,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10823,7 +10862,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10837,7 +10876,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10851,7 +10890,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>39</v>
@@ -10865,7 +10904,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>39</v>
@@ -11019,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11027,7 +11066,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11470,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11478,7 +11517,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11837,7 +11876,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>35</v>
@@ -11851,7 +11890,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -11865,7 +11904,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>5</v>
@@ -12336,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12344,7 +12383,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12413,7 +12452,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -12436,7 +12475,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -12456,7 +12495,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -12476,7 +12515,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -12496,7 +12535,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -12688,7 +12727,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12696,7 +12735,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12765,7 +12804,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -12788,7 +12827,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -12808,7 +12847,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -12828,7 +12867,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -12848,7 +12887,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -13040,7 +13079,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13048,7 +13087,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13137,7 +13176,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13157,7 +13196,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13245,7 +13284,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
@@ -13455,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13463,7 +13502,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13564,7 +13603,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13593,7 +13632,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13622,7 +13661,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -13680,7 +13719,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
@@ -13708,7 +13747,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>42</v>
@@ -13722,7 +13761,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -13736,7 +13775,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -13750,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>42</v>
@@ -13764,7 +13803,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -13918,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13926,7 +13965,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14056,7 +14095,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -14085,7 +14124,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -14185,7 +14224,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -14199,7 +14238,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>42</v>
@@ -14213,7 +14252,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>44</v>
@@ -14227,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>44</v>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6937" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6945" uniqueCount="407">
   <si>
     <t xml:space="preserve">map</t>
   </si>
@@ -1270,6 +1270,12 @@
     <t xml:space="preserve">FEEBAS</t>
   </si>
   <si>
+    <t xml:space="preserve">SLOWBRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLOWKING</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAP_SKY_PILLAR_1F</t>
   </si>
   <si>
@@ -9348,8 +9354,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O30" activeCellId="0" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9724,9 +9730,27 @@
       <c r="G26" s="1" t="n">
         <v>60</v>
       </c>
+      <c r="H26" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>35</v>
+      </c>
       <c r="M26" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="N26" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -9744,26 +9768,80 @@
       <c r="G27" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="H27" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>35</v>
+      </c>
       <c r="M27" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="N27" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G28" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="H28" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>35</v>
+      </c>
       <c r="M28" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="N28" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M29" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N29" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M30" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -9813,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9821,7 +9899,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9970,7 +10048,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -9990,7 +10068,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10004,7 +10082,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10018,7 +10096,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10032,7 +10110,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10046,7 +10124,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10060,7 +10138,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10074,7 +10152,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10228,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10236,7 +10314,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10385,7 +10463,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10405,7 +10483,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10419,7 +10497,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10433,7 +10511,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10447,7 +10525,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10461,7 +10539,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10475,7 +10553,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10489,7 +10567,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10643,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10651,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10800,7 +10878,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10820,7 +10898,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10834,7 +10912,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10848,7 +10926,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10862,7 +10940,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10876,7 +10954,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10890,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>39</v>
@@ -10904,7 +10982,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>39</v>
@@ -11058,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11066,7 +11144,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11509,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11517,7 +11595,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11876,7 +11954,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>35</v>
@@ -11890,7 +11968,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -11904,7 +11982,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>5</v>
@@ -12375,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12383,7 +12461,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12452,7 +12530,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -12475,7 +12553,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -12495,7 +12573,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -12515,7 +12593,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -12535,7 +12613,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -12727,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12735,7 +12813,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12804,7 +12882,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -12827,7 +12905,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -12847,7 +12925,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -12867,7 +12945,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -12887,7 +12965,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -13079,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13087,7 +13165,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13176,7 +13254,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13196,7 +13274,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13284,7 +13362,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
@@ -13494,7 +13572,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13502,7 +13580,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13603,7 +13681,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13632,7 +13710,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13661,7 +13739,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -13719,7 +13797,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
@@ -13747,7 +13825,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>42</v>
@@ -13761,7 +13839,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -13775,7 +13853,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -13789,7 +13867,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>42</v>
@@ -13803,7 +13881,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -13957,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13965,7 +14043,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14095,7 +14173,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -14124,7 +14202,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -14224,7 +14302,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -14238,7 +14316,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>42</v>
@@ -14252,7 +14330,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>44</v>
@@ -14266,7 +14344,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>44</v>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6945" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6945" uniqueCount="404">
   <si>
     <t xml:space="preserve">map</t>
   </si>
@@ -1255,6 +1255,9 @@
     <t xml:space="preserve">BULBASAUR</t>
   </si>
   <si>
+    <t xml:space="preserve">GOLPPY</t>
+  </si>
+  <si>
     <t xml:space="preserve">SLOWPOKE</t>
   </si>
   <si>
@@ -9343,7 +9346,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9719,7 +9722,7 @@
         <v>60</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>20</v>
@@ -9731,7 +9734,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>40</v>
@@ -9757,7 +9760,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>20</v>
@@ -9769,7 +9772,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>40</v>
@@ -9783,7 +9786,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>20</v>
@@ -9795,7 +9798,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>40</v>
@@ -9809,7 +9812,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>40</v>
@@ -9823,7 +9826,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -9879,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9887,7 +9890,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10036,7 +10039,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10056,7 +10059,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10070,7 +10073,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10084,7 +10087,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10098,7 +10101,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10112,7 +10115,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10126,7 +10129,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10140,7 +10143,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10294,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10302,7 +10305,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10451,7 +10454,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10471,7 +10474,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10485,7 +10488,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10499,7 +10502,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10513,7 +10516,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10527,7 +10530,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10541,7 +10544,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10555,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10709,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10717,7 +10720,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10866,7 +10869,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10886,7 +10889,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10900,7 +10903,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10914,7 +10917,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10928,7 +10931,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10942,7 +10945,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10956,7 +10959,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>39</v>
@@ -10970,7 +10973,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>39</v>
@@ -11124,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11132,7 +11135,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11575,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11583,7 +11586,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11942,7 +11945,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>35</v>
@@ -11956,7 +11959,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -11970,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>5</v>
@@ -12441,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12449,7 +12452,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12518,7 +12521,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -12541,7 +12544,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -12561,7 +12564,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -12581,7 +12584,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -12601,7 +12604,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -12793,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12801,7 +12804,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12870,7 +12873,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -12893,7 +12896,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -12913,7 +12916,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -12933,7 +12936,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -12953,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -13145,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13153,7 +13156,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13242,7 +13245,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13262,7 +13265,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13350,7 +13353,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
@@ -13560,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13568,7 +13571,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13669,7 +13672,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13698,7 +13701,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13727,7 +13730,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -13785,7 +13788,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
@@ -13813,7 +13816,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>42</v>
@@ -13827,7 +13830,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -13841,7 +13844,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -13855,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>42</v>
@@ -13869,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -14023,7 +14026,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14031,7 +14034,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14161,7 +14164,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -14190,7 +14193,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -14290,7 +14293,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -14304,7 +14307,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>42</v>
@@ -14318,7 +14321,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>44</v>
@@ -14332,7 +14335,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>44</v>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7012" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7012" uniqueCount="415">
   <si>
     <t xml:space="preserve">map</t>
   </si>
@@ -287,10 +287,10 @@
     <t xml:space="preserve">gArtisanCave_B1F</t>
   </si>
   <si>
-    <t xml:space="preserve">MAP_SILENT_FOREST</t>
+    <t xml:space="preserve">MAP_BRINE_BEACH</t>
   </si>
   <si>
-    <t xml:space="preserve">gSilentForest</t>
+    <t xml:space="preserve">gBrineBeach</t>
   </si>
   <si>
     <t xml:space="preserve">KRABBY</t>
@@ -1277,6 +1277,12 @@
     <t xml:space="preserve">gShoalCave_LowTideLowerRoom</t>
   </si>
   <si>
+    <t xml:space="preserve">MAP_SILENT_FOREST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gSilentForest</t>
+  </si>
+  <si>
     <t xml:space="preserve">PIDGEY</t>
   </si>
   <si>
@@ -9964,7 +9970,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>47</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9972,7 +9978,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>48</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10061,7 +10067,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>13</v>
@@ -10101,7 +10107,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>14</v>
@@ -10121,7 +10127,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>15</v>
@@ -10141,7 +10147,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>15</v>
@@ -10155,7 +10161,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>15</v>
@@ -10169,7 +10175,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>15</v>
@@ -10183,7 +10189,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>14</v>
@@ -10197,7 +10203,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
@@ -10211,7 +10217,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>13</v>
@@ -10225,7 +10231,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>13</v>
@@ -10297,7 +10303,7 @@
         <v>70</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>14</v>
@@ -10376,7 +10382,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>20</v>
@@ -10388,7 +10394,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>40</v>
@@ -10402,7 +10408,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>40</v>
@@ -10416,7 +10422,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -10472,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10480,7 +10486,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10629,7 +10635,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -10649,7 +10655,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -10663,7 +10669,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -10677,7 +10683,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -10691,7 +10697,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -10705,7 +10711,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -10719,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -10733,7 +10739,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -10887,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10895,7 +10901,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11044,7 +11050,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -11064,7 +11070,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -11078,7 +11084,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -11092,7 +11098,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -11106,7 +11112,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -11120,7 +11126,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -11134,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -11148,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -11302,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11310,7 +11316,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11459,7 +11465,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -11479,7 +11485,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -11493,7 +11499,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -11507,7 +11513,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -11521,7 +11527,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -11535,7 +11541,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -11549,7 +11555,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>39</v>
@@ -11563,7 +11569,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>39</v>
@@ -11717,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11725,7 +11731,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12583,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12591,7 +12597,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12950,7 +12956,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>35</v>
@@ -12964,7 +12970,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -12978,7 +12984,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>5</v>
@@ -13034,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13042,7 +13048,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13134,7 +13140,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -13174,7 +13180,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -13194,7 +13200,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -13386,7 +13392,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13394,7 +13400,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13486,7 +13492,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -13526,7 +13532,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -13546,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -13738,7 +13744,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13746,7 +13752,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13835,7 +13841,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -13855,7 +13861,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -13943,7 +13949,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
@@ -14153,7 +14159,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14161,7 +14167,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14262,7 +14268,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -14291,7 +14297,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -14320,7 +14326,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -14378,7 +14384,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
@@ -14406,7 +14412,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>42</v>
@@ -14420,7 +14426,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -14434,7 +14440,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -14448,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>42</v>
@@ -14462,7 +14468,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -14616,7 +14622,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14624,7 +14630,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14754,7 +14760,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -14783,7 +14789,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -14883,7 +14889,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -14897,7 +14903,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>42</v>
@@ -14911,7 +14917,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>44</v>
@@ -14925,7 +14931,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>44</v>
@@ -15564,8 +15570,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -460,9 +460,6 @@
   </si>
   <si>
     <t xml:space="preserve">gGraniteCave_FieryRoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHYHORN</t>
   </si>
   <si>
     <t xml:space="preserve">MAGBY</t>
@@ -1140,6 +1137,9 @@
     <t xml:space="preserve">gSafariZone_Northwest</t>
   </si>
   <si>
+    <t xml:space="preserve">RHYHORN</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSYDUCK</t>
   </si>
   <si>
@@ -2499,7 +2499,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>25</v>
@@ -2522,7 +2522,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -2582,7 +2582,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -2616,7 +2616,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>25</v>
@@ -2914,7 +2914,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>33</v>
@@ -2961,7 +2961,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>25</v>
@@ -2978,7 +2978,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>35</v>
@@ -2990,7 +2990,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -3019,7 +3019,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -3079,7 +3079,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>35</v>
@@ -3251,7 +3251,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>25</v>
@@ -3280,7 +3280,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>25</v>
@@ -3476,7 +3476,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>25</v>
@@ -3511,7 +3511,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -3598,7 +3598,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -3641,7 +3641,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>25</v>
@@ -3813,7 +3813,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -3830,7 +3830,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>5</v>
@@ -3842,7 +3842,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
@@ -3854,7 +3854,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -3868,7 +3868,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -14679,7 +14679,7 @@
         <v>60</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>30</v>
@@ -14740,7 +14740,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>35</v>
@@ -14769,7 +14769,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>35</v>
@@ -14798,7 +14798,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>35</v>
@@ -15461,7 +15461,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -15478,7 +15478,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>5</v>
@@ -15490,7 +15490,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
@@ -15502,7 +15502,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -15516,7 +15516,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -15528,7 +15528,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -15542,7 +15542,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -15556,7 +15556,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -22106,7 +22106,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22271,7 +22271,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>24</v>
@@ -22311,7 +22311,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>22</v>
@@ -22353,7 +22353,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>22</v>
@@ -22367,7 +22367,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>23</v>
@@ -22381,7 +22381,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>24</v>
@@ -22395,7 +22395,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>23</v>
@@ -22514,7 +22514,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22522,7 +22522,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22929,7 +22929,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22937,7 +22937,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23086,7 +23086,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>20</v>
@@ -23120,7 +23120,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>21</v>
@@ -23162,7 +23162,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>22</v>
@@ -23190,7 +23190,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>22</v>
@@ -23759,7 +23759,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23767,7 +23767,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24126,7 +24126,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -24210,7 +24210,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24218,7 +24218,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24415,7 +24415,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>30</v>
@@ -24429,7 +24429,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>30</v>
@@ -24443,7 +24443,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>31</v>
@@ -24457,7 +24457,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>32</v>
@@ -24471,7 +24471,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>33</v>
@@ -24625,7 +24625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24633,7 +24633,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24830,7 +24830,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>30</v>
@@ -24844,7 +24844,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>30</v>
@@ -24858,7 +24858,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>31</v>
@@ -24872,7 +24872,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>32</v>
@@ -24886,7 +24886,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>33</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25048,7 +25048,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25245,7 +25245,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>30</v>
@@ -25259,7 +25259,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>30</v>
@@ -25273,7 +25273,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>31</v>
@@ -25287,7 +25287,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>32</v>
@@ -25301,7 +25301,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>33</v>
@@ -25455,7 +25455,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25660,7 +25660,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>30</v>
@@ -25674,7 +25674,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>30</v>
@@ -25688,7 +25688,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>31</v>
@@ -25702,7 +25702,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>32</v>
@@ -25716,7 +25716,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>33</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25878,7 +25878,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26075,7 +26075,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>30</v>
@@ -26089,7 +26089,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>30</v>
@@ -26103,7 +26103,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>31</v>
@@ -26117,7 +26117,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>32</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>33</v>
@@ -26285,7 +26285,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26293,7 +26293,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26490,7 +26490,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>30</v>
@@ -26504,7 +26504,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>30</v>
@@ -26518,7 +26518,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>31</v>
@@ -26532,7 +26532,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>32</v>
@@ -26546,7 +26546,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>33</v>
@@ -26700,7 +26700,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26708,7 +26708,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26905,7 +26905,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>30</v>
@@ -26919,7 +26919,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>30</v>
@@ -26933,7 +26933,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>31</v>
@@ -26947,7 +26947,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>32</v>
@@ -26961,7 +26961,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>33</v>
@@ -27115,7 +27115,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27123,7 +27123,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27320,7 +27320,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>30</v>
@@ -27334,7 +27334,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>30</v>
@@ -27348,7 +27348,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>31</v>
@@ -27362,7 +27362,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>32</v>
@@ -27376,7 +27376,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>33</v>
@@ -27530,7 +27530,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27538,7 +27538,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27680,7 +27680,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -27709,7 +27709,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>15</v>
@@ -27738,7 +27738,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>5</v>
@@ -27755,7 +27755,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>16</v>
@@ -27769,7 +27769,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>18</v>
@@ -27783,7 +27783,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>14</v>
@@ -27941,7 +27941,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -27958,7 +27958,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>5</v>
@@ -27970,7 +27970,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
@@ -27982,7 +27982,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -27996,7 +27996,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -28008,7 +28008,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -28022,7 +28022,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -28036,7 +28036,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -28507,7 +28507,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28515,7 +28515,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28657,7 +28657,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -28674,7 +28674,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>35</v>
@@ -28686,7 +28686,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>15</v>
@@ -28703,7 +28703,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>33</v>
@@ -28715,7 +28715,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>5</v>
@@ -28732,7 +28732,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -28760,7 +28760,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>39</v>
@@ -28918,7 +28918,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -28935,7 +28935,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>5</v>
@@ -28947,7 +28947,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
@@ -28959,7 +28959,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -28973,7 +28973,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -28985,7 +28985,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -28999,7 +28999,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -29013,7 +29013,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -29069,7 +29069,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29077,7 +29077,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29219,7 +29219,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -29236,7 +29236,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>35</v>
@@ -29248,7 +29248,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>15</v>
@@ -29265,7 +29265,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>33</v>
@@ -29277,7 +29277,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>5</v>
@@ -29294,7 +29294,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -29322,7 +29322,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>39</v>
@@ -29480,7 +29480,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -29497,7 +29497,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>5</v>
@@ -29509,7 +29509,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
@@ -29521,7 +29521,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -29535,7 +29535,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -29547,7 +29547,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -29561,7 +29561,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -29575,7 +29575,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -29631,7 +29631,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29639,7 +29639,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29769,7 +29769,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>30</v>
@@ -29781,7 +29781,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -29798,7 +29798,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>35</v>
@@ -29810,7 +29810,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>15</v>
@@ -29827,7 +29827,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>35</v>
@@ -29839,7 +29839,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>5</v>
@@ -29856,7 +29856,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -29870,7 +29870,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>25</v>
@@ -29884,7 +29884,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>39</v>
@@ -30042,7 +30042,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -30059,7 +30059,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>5</v>
@@ -30071,7 +30071,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
@@ -30083,7 +30083,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -30097,7 +30097,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -30109,7 +30109,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -30123,7 +30123,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -30137,7 +30137,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -30193,7 +30193,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30201,7 +30201,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30330,7 +30330,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>35</v>
@@ -30350,7 +30350,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>33</v>
@@ -30370,7 +30370,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -30398,7 +30398,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>39</v>
@@ -30608,7 +30608,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30616,7 +30616,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30682,7 +30682,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>21</v>
@@ -30705,7 +30705,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>21</v>
@@ -30725,7 +30725,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>20</v>
@@ -30745,7 +30745,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>20</v>
@@ -30765,7 +30765,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>20</v>
@@ -30785,7 +30785,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>20</v>
@@ -30799,7 +30799,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>22</v>
@@ -30813,7 +30813,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>22</v>
@@ -30827,7 +30827,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>23</v>
@@ -30841,7 +30841,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>23</v>
@@ -30855,7 +30855,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>24</v>
@@ -30869,7 +30869,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>24</v>
@@ -31023,7 +31023,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31031,7 +31031,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31097,7 +31097,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>21</v>
@@ -31120,7 +31120,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>21</v>
@@ -31140,7 +31140,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>20</v>
@@ -31160,7 +31160,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>20</v>
@@ -31180,7 +31180,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>20</v>
@@ -31200,7 +31200,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>20</v>
@@ -31214,7 +31214,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>22</v>
@@ -31228,7 +31228,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>22</v>
@@ -31242,7 +31242,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>23</v>
@@ -31256,7 +31256,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>23</v>
@@ -31270,7 +31270,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>24</v>
@@ -31284,7 +31284,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>24</v>
@@ -31438,7 +31438,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31446,7 +31446,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31512,7 +31512,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>21</v>
@@ -31535,7 +31535,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>21</v>
@@ -31555,7 +31555,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>20</v>
@@ -31575,7 +31575,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>20</v>
@@ -31595,7 +31595,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>20</v>
@@ -31615,7 +31615,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>20</v>
@@ -31629,7 +31629,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>22</v>
@@ -31643,7 +31643,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>22</v>
@@ -31657,7 +31657,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>23</v>
@@ -31671,7 +31671,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>23</v>
@@ -31685,7 +31685,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>24</v>
@@ -31699,7 +31699,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>24</v>
@@ -31853,7 +31853,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31861,7 +31861,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31927,7 +31927,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>21</v>
@@ -31950,7 +31950,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>21</v>
@@ -31970,7 +31970,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>20</v>
@@ -31990,7 +31990,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>20</v>
@@ -32010,7 +32010,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>20</v>
@@ -32030,7 +32030,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>20</v>
@@ -32044,7 +32044,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>22</v>
@@ -32058,7 +32058,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>22</v>
@@ -32072,7 +32072,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>23</v>
@@ -32086,7 +32086,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>23</v>
@@ -32100,7 +32100,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>24</v>
@@ -32114,7 +32114,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>24</v>
@@ -32268,7 +32268,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32276,7 +32276,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32568,7 +32568,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -32719,7 +32719,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32727,7 +32727,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32793,7 +32793,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -32816,7 +32816,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>28</v>
@@ -32836,7 +32836,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -32856,7 +32856,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -32876,7 +32876,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>29</v>
@@ -32896,7 +32896,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>24</v>
@@ -32910,7 +32910,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>23</v>
@@ -32924,7 +32924,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>22</v>
@@ -32938,7 +32938,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -32952,7 +32952,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>24</v>
@@ -32966,7 +32966,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>29</v>
@@ -32980,7 +32980,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>24</v>
@@ -33549,7 +33549,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33557,7 +33557,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33623,7 +33623,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -33646,7 +33646,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>28</v>
@@ -33666,7 +33666,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -33686,7 +33686,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -33706,7 +33706,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>29</v>
@@ -33726,7 +33726,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>24</v>
@@ -33740,7 +33740,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>23</v>
@@ -33754,7 +33754,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>22</v>
@@ -33768,7 +33768,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -33782,7 +33782,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>24</v>
@@ -33796,7 +33796,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>29</v>
@@ -33810,7 +33810,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>24</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33972,7 +33972,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34038,7 +34038,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -34061,7 +34061,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>28</v>
@@ -34081,7 +34081,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -34101,7 +34101,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -34121,7 +34121,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>29</v>
@@ -34141,7 +34141,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>24</v>
@@ -34155,7 +34155,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>23</v>
@@ -34169,7 +34169,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>22</v>
@@ -34183,7 +34183,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -34197,7 +34197,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>24</v>
@@ -34211,7 +34211,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>29</v>
@@ -34225,7 +34225,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>24</v>
@@ -34379,7 +34379,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34387,7 +34387,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34453,7 +34453,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -34476,7 +34476,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>28</v>
@@ -34496,7 +34496,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -34516,7 +34516,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -34536,7 +34536,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>29</v>
@@ -34556,7 +34556,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>24</v>
@@ -34570,7 +34570,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>23</v>
@@ -34584,7 +34584,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>22</v>
@@ -34598,7 +34598,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>27</v>
@@ -34612,7 +34612,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -34626,7 +34626,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>25</v>
@@ -34640,7 +34640,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -34794,7 +34794,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34802,7 +34802,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34868,7 +34868,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -34891,7 +34891,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>28</v>
@@ -34911,7 +34911,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -34931,7 +34931,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -34951,7 +34951,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>29</v>
@@ -34971,7 +34971,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>24</v>
@@ -34985,7 +34985,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>23</v>
@@ -34999,7 +34999,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>22</v>
@@ -35013,7 +35013,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>27</v>
@@ -35027,7 +35027,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -35041,7 +35041,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>25</v>
@@ -35055,7 +35055,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -35209,7 +35209,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35217,7 +35217,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35283,7 +35283,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -35306,7 +35306,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>28</v>
@@ -35326,7 +35326,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -35346,7 +35346,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -35366,7 +35366,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>29</v>
@@ -35386,7 +35386,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>24</v>
@@ -35400,7 +35400,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>23</v>
@@ -35414,7 +35414,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>22</v>
@@ -35428,7 +35428,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>27</v>
@@ -35442,7 +35442,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -35456,7 +35456,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>25</v>
@@ -35470,7 +35470,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -35624,7 +35624,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35632,7 +35632,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35698,7 +35698,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -35721,7 +35721,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -35741,7 +35741,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>28</v>
@@ -35761,7 +35761,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>29</v>
@@ -35781,7 +35781,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>29</v>
@@ -35801,7 +35801,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>27</v>
@@ -35815,7 +35815,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>29</v>
@@ -35829,7 +35829,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>25</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36047,7 +36047,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36113,7 +36113,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>28</v>
@@ -36136,7 +36136,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>29</v>
@@ -36156,7 +36156,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>27</v>
@@ -36176,7 +36176,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>26</v>
@@ -36196,7 +36196,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>30</v>
@@ -36216,7 +36216,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>25</v>
@@ -36230,7 +36230,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>24</v>
@@ -36244,7 +36244,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>28</v>
@@ -36258,7 +36258,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>26</v>
@@ -36272,7 +36272,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>30</v>
@@ -36286,7 +36286,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>28</v>
@@ -36300,7 +36300,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>28</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36462,7 +36462,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36528,7 +36528,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>24</v>
@@ -36551,7 +36551,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>24</v>
@@ -36571,7 +36571,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -36591,7 +36591,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -36611,7 +36611,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>23</v>
@@ -36631,7 +36631,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>23</v>
@@ -36645,7 +36645,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>26</v>
@@ -36659,7 +36659,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>26</v>
@@ -36673,7 +36673,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>22</v>
@@ -36687,7 +36687,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>22</v>
@@ -36701,7 +36701,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>22</v>
@@ -36715,7 +36715,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>22</v>
@@ -36869,7 +36869,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36877,7 +36877,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36943,7 +36943,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>24</v>
@@ -36966,7 +36966,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>24</v>
@@ -36986,7 +36986,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -37006,7 +37006,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -37026,7 +37026,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>23</v>
@@ -37046,7 +37046,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>23</v>
@@ -37060,7 +37060,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>26</v>
@@ -37074,7 +37074,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>26</v>
@@ -37088,7 +37088,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>22</v>
@@ -37102,7 +37102,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>22</v>
@@ -37116,7 +37116,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>26</v>
@@ -37130,7 +37130,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>26</v>
@@ -37284,7 +37284,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37292,7 +37292,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37584,7 +37584,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -38150,7 +38150,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38158,7 +38158,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38227,7 +38227,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -38250,7 +38250,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>10</v>
@@ -38270,7 +38270,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -38290,7 +38290,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>5</v>
@@ -38310,7 +38310,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>5</v>
@@ -38450,7 +38450,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -38467,7 +38467,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>5</v>
@@ -38479,7 +38479,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
@@ -38491,7 +38491,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -38505,7 +38505,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -38517,7 +38517,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -38531,7 +38531,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -38545,7 +38545,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -38601,7 +38601,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38609,7 +38609,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38675,7 +38675,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>7</v>
@@ -38698,7 +38698,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>
@@ -38718,7 +38718,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>6</v>
@@ -38738,7 +38738,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>7</v>
@@ -38758,7 +38758,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>7</v>
@@ -38778,7 +38778,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>7</v>
@@ -38792,7 +38792,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>6</v>
@@ -38806,7 +38806,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>7</v>
@@ -38820,7 +38820,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>7</v>
@@ -38834,7 +38834,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>7</v>
@@ -38848,7 +38848,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>8</v>
@@ -38862,7 +38862,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>8</v>
@@ -39016,7 +39016,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -39027,7 +39027,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -39107,7 +39107,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>2</v>
@@ -39130,7 +39130,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>2</v>
@@ -39151,7 +39151,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>2</v>
@@ -39172,7 +39172,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>3</v>
@@ -39193,7 +39193,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>3</v>
@@ -39214,7 +39214,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>3</v>
@@ -39229,7 +39229,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>3</v>
@@ -39244,7 +39244,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>3</v>
@@ -39259,7 +39259,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>2</v>
@@ -39274,7 +39274,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>2</v>
@@ -39289,7 +39289,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>3</v>
@@ -39304,7 +39304,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>3</v>
@@ -39459,7 +39459,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39467,7 +39467,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39533,7 +39533,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4</v>
@@ -39548,7 +39548,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -39568,7 +39568,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>4</v>
@@ -39580,7 +39580,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>10</v>
@@ -39597,7 +39597,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -39609,7 +39609,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -39626,7 +39626,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>3</v>
@@ -39638,7 +39638,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>5</v>
@@ -39655,7 +39655,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>4</v>
@@ -39667,7 +39667,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>20</v>
@@ -39684,7 +39684,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>5</v>
@@ -39698,7 +39698,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>4</v>
@@ -39712,7 +39712,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
@@ -39726,7 +39726,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>5</v>
@@ -39740,7 +39740,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
@@ -39754,7 +39754,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>5</v>
@@ -39768,7 +39768,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>4</v>
@@ -39870,7 +39870,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -39887,7 +39887,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>5</v>
@@ -39899,7 +39899,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
@@ -39911,7 +39911,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -39925,7 +39925,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -39937,7 +39937,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -39951,7 +39951,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -39965,7 +39965,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -40021,7 +40021,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40029,7 +40029,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40095,7 +40095,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>3</v>
@@ -40130,7 +40130,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3</v>
@@ -40159,7 +40159,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -40188,7 +40188,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>4</v>
@@ -40246,7 +40246,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -40260,7 +40260,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -40274,7 +40274,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>4</v>
@@ -40432,7 +40432,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -40583,7 +40583,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40591,7 +40591,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40657,7 +40657,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>6</v>
@@ -40692,7 +40692,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>
@@ -40721,7 +40721,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>5</v>
@@ -40750,7 +40750,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>6</v>
@@ -40779,7 +40779,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>5</v>
@@ -40808,7 +40808,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>5</v>
@@ -40822,7 +40822,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>5</v>
@@ -40836,7 +40836,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>6</v>
@@ -40850,7 +40850,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>6</v>
@@ -40864,7 +40864,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>7</v>
@@ -40878,7 +40878,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>7</v>
@@ -40892,7 +40892,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>7</v>
@@ -41145,7 +41145,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41153,7 +41153,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41596,7 +41596,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41604,7 +41604,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42047,7 +42047,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42055,7 +42055,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42498,7 +42498,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42506,7 +42506,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43364,7 +43364,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43372,7 +43372,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43815,7 +43815,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43823,7 +43823,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43889,7 +43889,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>12</v>
@@ -43924,7 +43924,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>12</v>
@@ -43953,7 +43953,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>12</v>
@@ -43982,7 +43982,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>13</v>
@@ -44011,7 +44011,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>13</v>
@@ -44040,7 +44040,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>13</v>
@@ -44054,7 +44054,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>13</v>
@@ -44068,7 +44068,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>13</v>
@@ -44110,7 +44110,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>12</v>
@@ -44124,7 +44124,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>13</v>
@@ -44377,7 +44377,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44385,7 +44385,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44451,7 +44451,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>20</v>
@@ -44466,7 +44466,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -44498,7 +44498,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>20</v>
@@ -44510,7 +44510,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>10</v>
@@ -44536,7 +44536,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>21</v>
@@ -44548,7 +44548,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -44574,7 +44574,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>21</v>
@@ -44586,7 +44586,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>5</v>
@@ -44612,7 +44612,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>19</v>
@@ -44624,7 +44624,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>20</v>
@@ -44650,7 +44650,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>21</v>
@@ -44664,7 +44664,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>19</v>
@@ -44678,7 +44678,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>19</v>
@@ -44692,7 +44692,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>20</v>
@@ -44706,7 +44706,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>20</v>
@@ -44720,7 +44720,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>22</v>
@@ -44734,7 +44734,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>22</v>
@@ -44836,7 +44836,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -44853,7 +44853,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>5</v>
@@ -44865,7 +44865,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
@@ -44877,7 +44877,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -44891,7 +44891,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -44903,7 +44903,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -44917,7 +44917,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -44931,7 +44931,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -44987,7 +44987,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44995,7 +44995,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45104,7 +45104,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>15</v>
@@ -45164,7 +45164,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>14</v>
@@ -45192,7 +45192,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>16</v>
@@ -45402,7 +45402,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45410,7 +45410,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45476,7 +45476,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>15</v>
@@ -45499,7 +45499,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>15</v>
@@ -45539,7 +45539,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>14</v>
@@ -45559,7 +45559,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>14</v>
@@ -45593,7 +45593,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>16</v>
@@ -45621,7 +45621,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>16</v>
@@ -45635,7 +45635,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>16</v>
@@ -45649,7 +45649,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>16</v>
@@ -45663,7 +45663,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>16</v>
@@ -45817,7 +45817,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45825,7 +45825,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45891,7 +45891,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>16</v>
@@ -45906,7 +45906,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -45938,7 +45938,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>16</v>
@@ -45950,7 +45950,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>10</v>
@@ -45976,7 +45976,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>17</v>
@@ -45988,7 +45988,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -46014,7 +46014,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>15</v>
@@ -46026,7 +46026,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>5</v>
@@ -46052,7 +46052,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>15</v>
@@ -46064,7 +46064,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>20</v>
@@ -46090,7 +46090,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>16</v>
@@ -46104,7 +46104,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>16</v>
@@ -46118,7 +46118,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>18</v>
@@ -46132,7 +46132,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>17</v>
@@ -46146,7 +46146,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>15</v>
@@ -46160,7 +46160,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>17</v>
@@ -46174,7 +46174,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>15</v>
@@ -46276,7 +46276,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -46293,7 +46293,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>5</v>
@@ -46305,7 +46305,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
@@ -46317,7 +46317,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -46331,7 +46331,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -46343,7 +46343,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -46357,7 +46357,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -46371,7 +46371,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -46427,7 +46427,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46435,7 +46435,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46501,7 +46501,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>23</v>
@@ -46536,7 +46536,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>23</v>
@@ -46565,7 +46565,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -46594,7 +46594,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>24</v>
@@ -46623,7 +46623,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -46652,7 +46652,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>25</v>
@@ -46666,7 +46666,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>24</v>
@@ -46680,7 +46680,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>25</v>
@@ -46989,7 +46989,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46997,7 +46997,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47063,7 +47063,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>12</v>
@@ -47086,7 +47086,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>12</v>
@@ -47106,7 +47106,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>12</v>
@@ -47126,7 +47126,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>12</v>
@@ -47166,7 +47166,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>12</v>
@@ -47180,7 +47180,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>12</v>
@@ -47194,7 +47194,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
@@ -47208,7 +47208,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>14</v>
@@ -47222,7 +47222,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
@@ -47236,7 +47236,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>14</v>
@@ -47250,7 +47250,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>14</v>
@@ -47404,7 +47404,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47412,7 +47412,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47478,7 +47478,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>9</v>
@@ -47493,7 +47493,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -47513,7 +47513,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>9</v>
@@ -47525,7 +47525,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>10</v>
@@ -47542,7 +47542,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>10</v>
@@ -47554,7 +47554,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -47571,7 +47571,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>10</v>
@@ -47583,7 +47583,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>5</v>
@@ -47600,7 +47600,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>10</v>
@@ -47612,7 +47612,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>20</v>
@@ -47629,7 +47629,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
@@ -47643,7 +47643,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>8</v>
@@ -47657,7 +47657,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>8</v>
@@ -47815,7 +47815,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -47832,7 +47832,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>5</v>
@@ -47844,7 +47844,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
@@ -47856,7 +47856,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -47870,7 +47870,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -47882,7 +47882,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -47896,7 +47896,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -47910,7 +47910,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -47966,7 +47966,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47974,7 +47974,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48040,7 +48040,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>24</v>
@@ -48075,7 +48075,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>24</v>
@@ -48104,7 +48104,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -48133,7 +48133,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>26</v>
@@ -48162,7 +48162,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>26</v>
@@ -48191,7 +48191,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -48275,7 +48275,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -48377,7 +48377,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -48418,7 +48418,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -48432,7 +48432,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -48444,7 +48444,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -48458,7 +48458,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -48472,7 +48472,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -48943,7 +48943,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48951,7 +48951,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49017,7 +49017,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>25</v>
@@ -49052,7 +49052,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>25</v>
@@ -49081,7 +49081,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>27</v>
@@ -49110,7 +49110,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -49139,7 +49139,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -49168,7 +49168,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -49182,7 +49182,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>27</v>
@@ -49196,7 +49196,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>24</v>
@@ -49210,7 +49210,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -49224,7 +49224,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>26</v>
@@ -49238,7 +49238,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -49252,7 +49252,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -49354,7 +49354,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -49395,7 +49395,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -49409,7 +49409,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -49421,7 +49421,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -49435,7 +49435,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -49449,7 +49449,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -49505,7 +49505,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49513,7 +49513,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49579,7 +49579,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>25</v>
@@ -49594,7 +49594,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -49614,7 +49614,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>25</v>
@@ -49626,7 +49626,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>10</v>
@@ -49643,7 +49643,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>27</v>
@@ -49655,7 +49655,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -49672,7 +49672,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -49684,7 +49684,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>5</v>
@@ -49701,7 +49701,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -49713,7 +49713,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>20</v>
@@ -49730,7 +49730,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -49744,7 +49744,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>27</v>
@@ -49758,7 +49758,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>27</v>
@@ -49772,7 +49772,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -49786,7 +49786,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -49800,7 +49800,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>25</v>
@@ -49814,7 +49814,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -49916,7 +49916,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -49933,7 +49933,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>5</v>
@@ -49945,7 +49945,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
@@ -49957,7 +49957,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -49971,7 +49971,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -49983,7 +49983,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -49997,7 +49997,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -50011,7 +50011,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -50067,7 +50067,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50075,7 +50075,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50141,7 +50141,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>26</v>
@@ -50176,7 +50176,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -50205,7 +50205,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -50234,7 +50234,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -50263,7 +50263,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>28</v>
@@ -50292,7 +50292,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -50306,7 +50306,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>28</v>
@@ -50320,7 +50320,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>28</v>
@@ -50376,7 +50376,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -50629,7 +50629,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50637,7 +50637,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50929,7 +50929,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -51080,7 +51080,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51088,7 +51088,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51154,7 +51154,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>26</v>
@@ -51189,7 +51189,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -51218,7 +51218,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -51247,7 +51247,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -51276,7 +51276,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>28</v>
@@ -51305,7 +51305,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -51319,7 +51319,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>28</v>
@@ -51333,7 +51333,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>28</v>
@@ -51389,7 +51389,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -51642,7 +51642,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51650,7 +51650,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51942,7 +51942,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -52093,7 +52093,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52101,7 +52101,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52393,7 +52393,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -52544,7 +52544,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52552,7 +52552,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52844,7 +52844,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -52995,7 +52995,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53003,7 +53003,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53295,7 +53295,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -53446,7 +53446,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53454,7 +53454,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54312,7 +54312,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54320,7 +54320,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54472,7 +54472,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -54612,7 +54612,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -54763,7 +54763,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54771,7 +54771,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54837,7 +54837,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>30</v>
@@ -54872,7 +54872,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>35</v>
@@ -54901,7 +54901,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -54930,7 +54930,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -54959,7 +54959,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>20</v>
@@ -54988,7 +54988,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>45</v>
@@ -55002,7 +55002,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>15</v>
@@ -55016,7 +55016,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>50</v>
@@ -55030,7 +55030,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
@@ -55044,7 +55044,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
@@ -55058,7 +55058,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -55072,7 +55072,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>5</v>
@@ -55174,7 +55174,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -55325,7 +55325,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55333,7 +55333,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55625,7 +55625,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -55776,7 +55776,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55784,7 +55784,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56076,7 +56076,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -56143,7 +56143,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -56227,7 +56227,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56235,7 +56235,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56527,7 +56527,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -56594,7 +56594,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -56678,7 +56678,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56686,7 +56686,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56978,7 +56978,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>30</v>
@@ -57045,7 +57045,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -57129,7 +57129,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57137,7 +57137,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57320,7 +57320,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>9</v>
@@ -57334,7 +57334,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>9</v>
@@ -57348,7 +57348,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
@@ -57362,7 +57362,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>10</v>
@@ -57376,7 +57376,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -57390,7 +57390,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>10</v>
@@ -57544,7 +57544,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57552,7 +57552,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57618,7 +57618,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -57653,7 +57653,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -57682,7 +57682,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>29</v>
@@ -57711,7 +57711,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>29</v>
@@ -57740,7 +57740,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -57769,7 +57769,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>29</v>
@@ -57783,7 +57783,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>31</v>
@@ -57797,7 +57797,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>29</v>
@@ -57811,7 +57811,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -57825,7 +57825,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -57839,7 +57839,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>31</v>
@@ -57853,7 +57853,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -58007,7 +58007,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58015,7 +58015,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58203,7 +58203,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>34</v>
@@ -58232,7 +58232,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>33</v>
@@ -58246,7 +58246,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>35</v>
@@ -58288,7 +58288,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>37</v>
@@ -58316,7 +58316,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>40</v>
@@ -58470,7 +58470,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58478,7 +58478,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58544,7 +58544,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>105</v>
+        <v>330</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -58579,7 +58579,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -58608,7 +58608,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>330</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>29</v>
@@ -58637,7 +58637,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>29</v>
@@ -58695,7 +58695,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>29</v>
@@ -58709,7 +58709,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>31</v>
@@ -58881,7 +58881,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -58898,7 +58898,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>5</v>
@@ -58910,7 +58910,7 @@
         <v>20</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
@@ -58922,7 +58922,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -58936,7 +58936,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="AbandonedShip_HiddenFloorCorr" sheetId="1" state="visible" r:id="rId2"/>
@@ -20821,8 +20821,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21083,7 +21083,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>22</v>
@@ -21111,7 +21111,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>24</v>
@@ -22494,7 +22494,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="AbandonedShip_HiddenFloorCorr" sheetId="1" state="visible" r:id="rId2"/>
@@ -16007,8 +16007,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16131,10 +16131,10 @@
         <v>23</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>20</v>
@@ -16163,10 +16163,10 @@
         <v>38</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19505,7 +19505,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="Q15" activeCellId="0" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19806,10 +19806,10 @@
         <v>17</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>10</v>
@@ -19853,10 +19853,10 @@
         <v>12</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>20</v>
@@ -20821,7 +20821,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="AbandonedShip_HiddenFloorCorr" sheetId="1" state="visible" r:id="rId2"/>
@@ -16007,8 +16007,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16206,10 +16206,10 @@
         <v>52</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -16278,10 +16278,10 @@
         <v>54</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16292,10 +16292,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20822,1299 +20822,6 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.54"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G28" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M29" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M30" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q30"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.54"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G28" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M29" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M30" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q30"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.54"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G28" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M29" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M30" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q26"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -22143,7 +20850,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22151,7 +20858,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22212,11 +20919,1304 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M29" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M30" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M29" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M30" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M29" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M30" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>92</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -22337,10 +22337,10 @@
         <v>96</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22351,10 +22351,10 @@
         <v>96</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="26"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="70"/>
   </bookViews>
   <sheets>
     <sheet name="AbandonedShip_HiddenFloorCorr" sheetId="1" state="visible" r:id="rId2"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7064" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7064" uniqueCount="424">
   <si>
     <t xml:space="preserve">map</t>
   </si>
@@ -861,10 +861,13 @@
     <t xml:space="preserve">MINUN</t>
   </si>
   <si>
-    <t xml:space="preserve">ODDISH</t>
+    <t xml:space="preserve">HOPPIP</t>
   </si>
   <si>
     <t xml:space="preserve">PLUSLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKIPLOOM</t>
   </si>
   <si>
     <t xml:space="preserve">MAP_ROUTE111</t>
@@ -955,6 +958,9 @@
   </si>
   <si>
     <t xml:space="preserve">PUDDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODDISH</t>
   </si>
   <si>
     <t xml:space="preserve">SURSKIT</t>
@@ -2434,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2442,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,7 +2514,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>25</v>
@@ -2531,7 +2537,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -2551,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -2571,7 +2577,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>27</v>
@@ -2591,7 +2597,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -2611,7 +2617,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>25</v>
@@ -2625,7 +2631,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>25</v>
@@ -2639,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>27</v>
@@ -2653,7 +2659,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -2667,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -2681,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -2695,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -2849,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,7 +2929,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>33</v>
@@ -2938,7 +2944,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>25</v>
@@ -2987,7 +2993,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>35</v>
@@ -3057,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>35</v>
@@ -3074,7 +3080,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>33</v>
@@ -3102,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>34</v>
@@ -3130,7 +3136,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>37</v>
@@ -3158,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>40</v>
@@ -3301,7 +3307,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>25</v>
@@ -3315,7 +3321,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>30</v>
@@ -3327,7 +3333,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -3341,7 +3347,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>30</v>
@@ -3355,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>35</v>
@@ -3411,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3419,7 +3425,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,7 +3491,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>25</v>
@@ -3500,7 +3506,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -3520,7 +3526,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -3532,7 +3538,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -3549,7 +3555,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -3561,7 +3567,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -3578,7 +3584,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>27</v>
@@ -3590,7 +3596,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -3607,7 +3613,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>25</v>
@@ -3619,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -3636,7 +3642,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>27</v>
@@ -3650,7 +3656,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>25</v>
@@ -3664,7 +3670,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>27</v>
@@ -3678,7 +3684,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -3692,7 +3698,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -3706,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -3720,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -3889,7 +3895,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -3903,7 +3909,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -3917,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>25</v>
@@ -3973,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3981,7 +3987,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4424,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,7 +4438,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4839,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4847,7 +4853,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5254,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,7 +5268,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5669,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,7 +5683,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6084,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6092,7 +6098,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6499,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6507,7 +6513,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7476,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7484,7 +7490,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8038,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8046,7 +8052,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8453,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8461,7 +8467,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8562,7 +8568,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -8603,7 +8609,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -8620,7 +8626,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -8632,7 +8638,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>25</v>
@@ -8661,7 +8667,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -8678,7 +8684,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -8706,7 +8712,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -8734,7 +8740,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -8762,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -9015,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9023,7 +9029,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9112,7 +9118,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -9152,7 +9158,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -9192,7 +9198,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -9206,7 +9212,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>26</v>
@@ -9220,7 +9226,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -9248,7 +9254,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>28</v>
@@ -9276,7 +9282,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>30</v>
@@ -9430,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9438,7 +9444,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9539,7 +9545,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -9580,7 +9586,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>25</v>
@@ -9597,7 +9603,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -9609,7 +9615,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>25</v>
@@ -9638,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -9655,7 +9661,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -9683,7 +9689,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -9711,7 +9717,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -9739,7 +9745,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -9992,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10000,7 +10006,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10089,7 +10095,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>26</v>
@@ -10129,7 +10135,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>28</v>
@@ -10169,7 +10175,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>30</v>
@@ -10197,7 +10203,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>32</v>
@@ -10225,7 +10231,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>32</v>
@@ -10253,7 +10259,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32</v>
@@ -10407,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10415,7 +10421,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10481,7 +10487,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>14</v>
@@ -10504,7 +10510,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>13</v>
@@ -10524,7 +10530,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>14</v>
@@ -10544,7 +10550,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>14</v>
@@ -10564,7 +10570,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>15</v>
@@ -10584,7 +10590,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>15</v>
@@ -10598,7 +10604,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>15</v>
@@ -10612,7 +10618,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>15</v>
@@ -10626,7 +10632,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>14</v>
@@ -10640,7 +10646,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
@@ -10654,7 +10660,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>13</v>
@@ -10668,7 +10674,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>13</v>
@@ -10740,7 +10746,7 @@
         <v>70</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>14</v>
@@ -10819,7 +10825,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>20</v>
@@ -10831,7 +10837,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>40</v>
@@ -10845,7 +10851,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>40</v>
@@ -10859,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -10915,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10923,7 +10929,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11072,7 +11078,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -11092,7 +11098,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -11106,7 +11112,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -11120,7 +11126,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -11134,7 +11140,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -11148,7 +11154,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -11162,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -11176,7 +11182,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -11330,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11338,7 +11344,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11487,7 +11493,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -11507,7 +11513,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -11521,7 +11527,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -11535,7 +11541,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -11549,7 +11555,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -11563,7 +11569,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -11577,7 +11583,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>37</v>
@@ -11591,7 +11597,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -11745,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11753,7 +11759,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11902,7 +11908,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>36</v>
@@ -11922,7 +11928,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>37</v>
@@ -11936,7 +11942,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -11950,7 +11956,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>36</v>
@@ -11964,7 +11970,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>37</v>
@@ -11978,7 +11984,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -11992,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>39</v>
@@ -12006,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>39</v>
@@ -12575,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12583,7 +12589,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13026,7 +13032,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13034,7 +13040,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13393,7 +13399,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>35</v>
@@ -13407,7 +13413,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -13421,7 +13427,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>5</v>
@@ -13477,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13485,7 +13491,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13577,7 +13583,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -13617,7 +13623,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -13637,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -13829,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13837,7 +13843,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13929,7 +13935,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -13969,7 +13975,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -13989,7 +13995,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
@@ -14181,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14189,7 +14195,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14278,7 +14284,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -14298,7 +14304,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -14386,7 +14392,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
@@ -14596,7 +14602,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14604,7 +14610,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14705,7 +14711,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>40</v>
@@ -14734,7 +14740,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -14763,7 +14769,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -14821,7 +14827,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
@@ -14849,7 +14855,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>42</v>
@@ -14863,7 +14869,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -14877,7 +14883,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>38</v>
@@ -14891,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>42</v>
@@ -14905,7 +14911,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
@@ -15059,7 +15065,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15067,7 +15073,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15197,7 +15203,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>40</v>
@@ -15226,7 +15232,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -15326,7 +15332,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42</v>
@@ -15340,7 +15346,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>42</v>
@@ -15354,7 +15360,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>44</v>
@@ -15368,7 +15374,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>44</v>
@@ -22114,7 +22120,7 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -43795,8 +43801,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43898,13 +43904,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>20</v>
@@ -43936,10 +43942,10 @@
         <v>235</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -43965,10 +43971,10 @@
         <v>236</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
@@ -43994,10 +44000,10 @@
         <v>235</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -44023,10 +44029,10 @@
         <v>237</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -44052,10 +44058,10 @@
         <v>238</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44063,13 +44069,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44077,27 +44083,27 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44105,13 +44111,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44119,13 +44125,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44133,13 +44139,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44386,7 +44392,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44394,7 +44400,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44621,7 +44627,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>19</v>
@@ -44659,7 +44665,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>21</v>
@@ -44701,7 +44707,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>20</v>
@@ -44715,7 +44721,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>20</v>
@@ -44729,7 +44735,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>22</v>
@@ -44743,7 +44749,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>22</v>
@@ -44996,7 +45002,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45004,7 +45010,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45411,7 +45417,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45419,7 +45425,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45485,7 +45491,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>15</v>
@@ -45508,7 +45514,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>15</v>
@@ -45548,7 +45554,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>14</v>
@@ -45568,7 +45574,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>14</v>
@@ -45602,7 +45608,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>16</v>
@@ -45630,7 +45636,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>16</v>
@@ -45644,7 +45650,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>16</v>
@@ -45658,7 +45664,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>16</v>
@@ -45672,7 +45678,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>16</v>
@@ -45826,7 +45832,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45834,7 +45840,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45900,7 +45906,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>16</v>
@@ -45985,7 +45991,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>17</v>
@@ -46023,7 +46029,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>15</v>
@@ -46099,7 +46105,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>16</v>
@@ -46113,7 +46119,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>16</v>
@@ -46127,7 +46133,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>18</v>
@@ -46141,7 +46147,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>17</v>
@@ -46155,7 +46161,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>15</v>
@@ -46169,7 +46175,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>17</v>
@@ -46183,7 +46189,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>15</v>
@@ -46436,7 +46442,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46444,7 +46450,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46510,7 +46516,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>23</v>
@@ -46574,7 +46580,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -46661,7 +46667,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>25</v>
@@ -46675,7 +46681,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>24</v>
@@ -46689,7 +46695,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>25</v>
@@ -46998,7 +47004,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47006,7 +47012,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47095,7 +47101,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>12</v>
@@ -47115,7 +47121,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>12</v>
@@ -47135,7 +47141,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>12</v>
@@ -47175,7 +47181,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>12</v>
@@ -47189,7 +47195,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>12</v>
@@ -47203,7 +47209,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
@@ -47217,7 +47223,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>14</v>
@@ -47231,7 +47237,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
@@ -47245,7 +47251,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>14</v>
@@ -47259,7 +47265,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>14</v>
@@ -47413,7 +47419,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47421,7 +47427,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47487,7 +47493,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>9</v>
@@ -47522,7 +47528,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>9</v>
@@ -47551,7 +47557,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>10</v>
@@ -47580,7 +47586,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>10</v>
@@ -47609,7 +47615,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>10</v>
@@ -47638,7 +47644,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
@@ -47652,7 +47658,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>8</v>
@@ -47666,7 +47672,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>8</v>
@@ -47975,7 +47981,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47983,7 +47989,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48171,7 +48177,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>26</v>
@@ -48200,7 +48206,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -48284,7 +48290,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -48427,7 +48433,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -48441,7 +48447,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -48453,7 +48459,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -48467,7 +48473,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -48481,7 +48487,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -48952,7 +48958,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48960,7 +48966,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49061,7 +49067,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>25</v>
@@ -49119,7 +49125,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -49148,7 +49154,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -49177,7 +49183,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -49191,7 +49197,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>27</v>
@@ -49205,7 +49211,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>24</v>
@@ -49219,7 +49225,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -49233,7 +49239,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>26</v>
@@ -49247,7 +49253,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>27</v>
@@ -49261,7 +49267,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -49363,7 +49369,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>25</v>
@@ -49404,7 +49410,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>30</v>
@@ -49418,7 +49424,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>10</v>
@@ -49430,7 +49436,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>20</v>
@@ -49444,7 +49450,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -49458,7 +49464,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>40</v>
@@ -49514,7 +49520,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49522,7 +49528,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49623,7 +49629,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>25</v>
@@ -49652,7 +49658,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>27</v>
@@ -49681,7 +49687,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>25</v>
@@ -49739,7 +49745,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -49753,7 +49759,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>27</v>
@@ -49781,7 +49787,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>25</v>
@@ -49795,7 +49801,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -49809,7 +49815,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>25</v>
@@ -49823,7 +49829,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -50076,7 +50082,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50084,7 +50090,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50214,7 +50220,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -50272,7 +50278,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>28</v>
@@ -50301,7 +50307,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -50315,7 +50321,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>28</v>
@@ -50329,7 +50335,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>28</v>
@@ -50385,7 +50391,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -50638,7 +50644,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50646,7 +50652,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51089,7 +51095,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51097,7 +51103,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51227,7 +51233,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>26</v>
@@ -51285,7 +51291,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>28</v>
@@ -51314,7 +51320,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>26</v>
@@ -51328,7 +51334,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>28</v>
@@ -51342,7 +51348,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>28</v>
@@ -51398,7 +51404,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>25</v>
@@ -51651,7 +51657,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51659,7 +51665,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52102,7 +52108,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52110,7 +52116,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52553,7 +52559,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52561,7 +52567,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53004,7 +53010,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53012,7 +53018,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53455,7 +53461,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53463,7 +53469,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54321,7 +54327,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54329,7 +54335,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54481,7 +54487,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -54772,7 +54778,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54780,7 +54786,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54846,7 +54852,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>30</v>
@@ -54881,7 +54887,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>35</v>
@@ -54910,7 +54916,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>25</v>
@@ -54939,7 +54945,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>40</v>
@@ -54968,7 +54974,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>20</v>
@@ -54997,7 +55003,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>45</v>
@@ -55011,7 +55017,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>15</v>
@@ -55025,7 +55031,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>50</v>
@@ -55039,7 +55045,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
@@ -55053,7 +55059,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
@@ -55067,7 +55073,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -55081,7 +55087,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>5</v>
@@ -55334,7 +55340,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55342,7 +55348,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55785,7 +55791,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55793,7 +55799,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56152,7 +56158,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -56236,7 +56242,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56244,7 +56250,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56603,7 +56609,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -56687,7 +56693,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56695,7 +56701,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57054,7 +57060,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>25</v>
@@ -57138,7 +57144,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57146,7 +57152,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57329,7 +57335,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>9</v>
@@ -57343,7 +57349,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>9</v>
@@ -57357,7 +57363,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>10</v>
@@ -57371,7 +57377,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>10</v>
@@ -57385,7 +57391,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>10</v>
@@ -57399,7 +57405,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>10</v>
@@ -57553,7 +57559,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57561,7 +57567,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57627,7 +57633,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -57662,7 +57668,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -57691,7 +57697,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>29</v>
@@ -57720,7 +57726,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>29</v>
@@ -57749,7 +57755,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -57778,7 +57784,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>29</v>
@@ -57792,7 +57798,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>31</v>
@@ -57806,7 +57812,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>29</v>
@@ -57820,7 +57826,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -57834,7 +57840,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -57848,7 +57854,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>31</v>
@@ -57862,7 +57868,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -58016,7 +58022,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58024,7 +58030,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58212,7 +58218,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>34</v>
@@ -58241,7 +58247,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>33</v>
@@ -58297,7 +58303,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>37</v>
@@ -58325,7 +58331,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>40</v>
@@ -58479,7 +58485,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58487,7 +58493,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58553,7 +58559,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>27</v>
@@ -58568,7 +58574,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
@@ -58588,7 +58594,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>27</v>
@@ -58600,7 +58606,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>20</v>
@@ -58617,7 +58623,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>29</v>
@@ -58629,7 +58635,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
@@ -58646,7 +58652,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>29</v>
@@ -58658,7 +58664,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>30</v>
@@ -58675,7 +58681,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>27</v>
@@ -58687,7 +58693,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>25</v>
@@ -58704,7 +58710,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>29</v>
@@ -58718,7 +58724,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>31</v>
@@ -58732,7 +58738,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>29</v>
@@ -58746,7 +58752,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -58760,7 +58766,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>27</v>
@@ -58774,7 +58780,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>31</v>
@@ -58788,7 +58794,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>29</v>
@@ -58957,7 +58963,7 @@
         <v>15</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>30</v>
@@ -58971,7 +58977,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>35</v>
@@ -58985,7 +58991,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>25</v>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="70"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="122"/>
   </bookViews>
   <sheets>
     <sheet name="AbandonedShip_HiddenFloorCorr" sheetId="1" state="visible" r:id="rId2"/>
@@ -129,8 +129,8 @@
     <sheet name="SkyPillar_5F" sheetId="119" state="visible" r:id="rId120"/>
     <sheet name="SlateportCity" sheetId="120" state="visible" r:id="rId121"/>
     <sheet name="SootopolisCity" sheetId="121" state="visible" r:id="rId122"/>
-    <sheet name="Underwater1" sheetId="122" state="visible" r:id="rId123"/>
-    <sheet name="Underwater2" sheetId="123" state="visible" r:id="rId124"/>
+    <sheet name="Underwater_Route124" sheetId="122" state="visible" r:id="rId123"/>
+    <sheet name="Underwater_Route126" sheetId="123" state="visible" r:id="rId124"/>
     <sheet name="VictoryRoad_1F" sheetId="124" state="visible" r:id="rId125"/>
     <sheet name="VictoryRoad_B1F" sheetId="125" state="visible" r:id="rId126"/>
     <sheet name="VictoryRoad_B2F" sheetId="126" state="visible" r:id="rId127"/>
@@ -1374,10 +1374,10 @@
     <t xml:space="preserve">GYARADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">MAP_UNDERWATER1</t>
+    <t xml:space="preserve">MAP_UNDERWATER_ROUTE124</t>
   </si>
   <si>
-    <t xml:space="preserve">gUnderwater1</t>
+    <t xml:space="preserve">gUnderwater_Route124</t>
   </si>
   <si>
     <t xml:space="preserve">CHINCHOU</t>
@@ -1386,10 +1386,10 @@
     <t xml:space="preserve">RELICANTH</t>
   </si>
   <si>
-    <t xml:space="preserve">MAP_UNDERWATER2</t>
+    <t xml:space="preserve">MAP_UNDERWATER_ROUTE126</t>
   </si>
   <si>
-    <t xml:space="preserve">gUnderwater2</t>
+    <t xml:space="preserve">gUnderwater_Route126</t>
   </si>
   <si>
     <t xml:space="preserve">MAP_VICTORY_ROAD_1F</t>
@@ -13455,7 +13455,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13806,8 +13806,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43801,7 +43801,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/wild_data/wild_data.xlsx
+++ b/wild_data/wild_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="56"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="AbandonedShip_HiddenFloorCorr" sheetId="1" state="visible" r:id="rId2"/>
@@ -1599,7 +1599,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2050,7 +2050,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2465,7 +2465,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2928,7 +2928,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3490,7 +3490,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3905,7 +3905,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4467,7 +4467,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5029,7 +5029,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5480,7 +5480,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5895,7 +5895,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6310,7 +6310,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6725,7 +6725,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7140,7 +7140,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7555,7 +7555,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7970,7 +7970,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8532,7 +8532,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9094,7 +9094,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9509,7 +9509,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10071,7 +10071,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10486,7 +10486,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11048,7 +11048,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11463,7 +11463,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T13" activeCellId="0" sqref="T13"/>
+      <selection pane="topLeft" activeCell="T13" activeCellId="1" sqref="D6:D17 T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11971,7 +11971,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12386,7 +12386,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12801,7 +12801,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13216,7 +13216,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13631,7 +13631,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14082,7 +14082,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14533,7 +14533,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="D6:D17 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14885,7 +14885,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="1" sqref="D6:D17 F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15237,7 +15237,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15652,7 +15652,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16115,7 +16115,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16677,7 +16677,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17092,7 +17092,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="1" sqref="D6:D17 C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17197,10 +17197,10 @@
         <v>49</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>20</v>
@@ -17232,10 +17232,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -17261,10 +17261,10 @@
         <v>49</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
@@ -17290,10 +17290,10 @@
         <v>52</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -17319,10 +17319,10 @@
         <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -17348,10 +17348,10 @@
         <v>52</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17362,10 +17362,10 @@
         <v>54</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17376,10 +17376,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17390,10 +17390,10 @@
         <v>55</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17404,10 +17404,10 @@
         <v>56</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17418,10 +17418,10 @@
         <v>55</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17432,10 +17432,10 @@
         <v>56</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17648,7 +17648,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18063,7 +18063,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18478,7 +18478,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18893,7 +18893,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19308,7 +19308,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19723,7 +19723,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20174,7 +20174,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20589,7 +20589,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q15" activeCellId="0" sqref="Q15"/>
+      <selection pane="topLeft" activeCell="Q15" activeCellId="1" sqref="D6:D17 Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21040,7 +21040,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21491,7 +21491,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21906,7 +21906,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22003,7 +22003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>20</v>
       </c>
@@ -22011,10 +22011,10 @@
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>10</v>
@@ -22026,7 +22026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>20</v>
       </c>
@@ -22034,10 +22034,10 @@
         <v>96</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -22046,7 +22046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>10</v>
       </c>
@@ -22054,10 +22054,10 @@
         <v>96</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
@@ -22066,7 +22066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>10</v>
       </c>
@@ -22074,10 +22074,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -22086,7 +22086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>10</v>
       </c>
@@ -22094,10 +22094,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -22106,7 +22106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
@@ -22114,13 +22114,13 @@
         <v>97</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>5</v>
       </c>
@@ -22128,13 +22128,13 @@
         <v>98</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>5</v>
       </c>
@@ -22142,13 +22142,13 @@
         <v>64</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>4</v>
       </c>
@@ -22156,13 +22156,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>4</v>
       </c>
@@ -22170,13 +22170,13 @@
         <v>92</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>1</v>
       </c>
@@ -22184,13 +22184,13 @@
         <v>23</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
@@ -22198,10 +22198,10 @@
         <v>92</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22321,7 +22321,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22426,10 +22426,10 @@
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>10</v>
@@ -22449,10 +22449,10 @@
         <v>24</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -22469,10 +22469,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
@@ -22489,10 +22489,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -22509,10 +22509,10 @@
         <v>22</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -22529,10 +22529,10 @@
         <v>96</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22543,10 +22543,10 @@
         <v>97</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22557,10 +22557,10 @@
         <v>98</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22571,10 +22571,10 @@
         <v>63</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22585,10 +22585,10 @@
         <v>63</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22599,10 +22599,10 @@
         <v>63</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22613,10 +22613,10 @@
         <v>63</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22736,7 +22736,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22841,10 +22841,10 @@
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>10</v>
@@ -22876,10 +22876,10 @@
         <v>24</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -22905,10 +22905,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
@@ -22934,10 +22934,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -22963,10 +22963,10 @@
         <v>97</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -22992,10 +22992,10 @@
         <v>63</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23006,10 +23006,10 @@
         <v>64</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23020,10 +23020,10 @@
         <v>98</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23034,10 +23034,10 @@
         <v>63</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23048,10 +23048,10 @@
         <v>105</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23062,10 +23062,10 @@
         <v>63</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23076,10 +23076,10 @@
         <v>105</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23198,8 +23198,8 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23304,10 +23304,10 @@
         <v>92</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>20</v>
@@ -23327,10 +23327,10 @@
         <v>24</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>30</v>
@@ -23347,10 +23347,10 @@
         <v>92</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
@@ -23367,10 +23367,10 @@
         <v>23</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>4</v>
@@ -23387,10 +23387,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -23407,10 +23407,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23421,10 +23421,10 @@
         <v>96</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23435,10 +23435,10 @@
         <v>96</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23449,10 +23449,10 @@
         <v>108</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23463,10 +23463,10 @@
         <v>109</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23477,10 +23477,10 @@
         <v>108</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23491,10 +23491,10 @@
         <v>109</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23579,7 +23579,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D6:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23994,7 +23994,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24409,7 +24409,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="D6:D17 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24824,7 +24824,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25275,7 +25275,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25690,7 +25690,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26105,7 +26105,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26520,7 +26520,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26935,7 +26935,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27350,7 +27350,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27765,7 +27765,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28180,7 +28180,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28595,7 +28595,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29157,7 +29157,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29572,7 +29572,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30134,7 +30134,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30696,7 +30696,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31258,7 +31258,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31673,7 +31673,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32088,7 +32088,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32503,7 +32503,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32918,7 +32918,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33333,7 +33333,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33784,7 +33784,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34199,7 +34199,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34614,7 +34614,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35029,7 +35029,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35444,7 +35444,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35859,7 +35859,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36274,7 +36274,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36689,7 +36689,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="1" sqref="D6:D17 E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37104,7 +37104,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37518,8 +37518,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37940,7 +37940,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="D6:D17 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38404,7 +38404,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38819,7 +38819,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39234,7 +39234,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39649,7 +39649,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40100,7 +40100,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40551,7 +40551,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="D6:D17 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40966,7 +40966,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+      <selection pane="topLeft" activeCell="K18" activeCellId="1" sqref="D6:D17 K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41409,7 +41409,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="D6:D17 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41971,7 +41971,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="1" sqref="D6:D17 E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42533,7 +42533,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="D6:D17 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43095,7 +43095,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43546,7 +43546,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -43997,7 +43997,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44412,7 +44412,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44863,7 +44863,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45314,7 +45314,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45765,7 +45765,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="D6:D17 B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -46327,7 +46327,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -46937,7 +46937,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47352,7 +47352,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47767,7 +47767,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48377,7 +48377,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48939,7 +48939,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="D6:D17 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49354,7 +49354,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49769,7 +49769,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="D6:D17 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50331,7 +50331,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50893,7 +50893,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51455,7 +51455,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -52017,7 +52017,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -52579,7 +52579,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -53030,7 +53030,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -53592,7 +53592,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -54043,7 +54043,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -54494,7 +54494,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -54945,7 +54945,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -55360,7 +55360,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -55811,7 +55811,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -56262,7 +56262,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -56713,7 +56713,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -57275,7 +57275,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -57726,7 +57726,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -58177,7 +58177,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -58628,7 +58628,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -59079,7 +59079,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D6:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -59494,7 +59494,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D6:D17 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
